--- a/spec/models/cfsi/sample_cmrts/2.00/2.00_-_green.xlsx
+++ b/spec/models/cfsi/sample_cmrts/2.00/2.00_-_green.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\gsp_office_conv\tmp\all_cmrt_versions\all_cmrt_versions\2.00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\gsp_office_conv\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="675" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="675" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="2355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="2358">
   <si>
     <t xml:space="preserve">11. Nom des mines si des scories de métaux ou des métaux recyclés sont sourcés, mentionner « scories » ou « recyclé » – Inscrire le nom de la mine ayant extrait le mètal listé dans la colonne B. Si le minerai fourni provient de « scories » ou du recyclage, mentionner lequel (scories ou recyclé) dans le champ prévu a cet effet. Voir les définitions de « scories » et « recyclé » </t>
   </si>
@@ -9287,6 +9287,15 @@
   </si>
   <si>
     <t>We run GSP</t>
+  </si>
+  <si>
+    <t>ABCDEFG12345678</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>This is the main product</t>
   </si>
 </sst>
 </file>
@@ -11089,13 +11098,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -11103,76 +11106,21 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11242,17 +11190,78 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11338,6 +11347,10 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -11391,10 +11404,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -18199,7 +18208,7 @@
   </sheetPr>
   <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -18224,32 +18233,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickTop="1">
-      <c r="A1" s="280"/>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="282"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="264"/>
     </row>
     <row r="2" spans="1:20" ht="116.25" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="283" t="str">
+      <c r="D2" s="265" t="str">
         <f>IF($D$3="English",B82,IF($D$3="中文 Chinese",C82,IF($D$3="日本語 Japanese",D82,IF($D$3="한국어 Korean",E82,IF($D$3="Français",F82,IF($D$3="Português",G82,IF($D$3="Deutsch",H82,IF($D$3="Español",I82))))))))</f>
         <v>Conflict Minerals Reporting Template</v>
       </c>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
       <c r="K2" s="105"/>
       <c r="L2" s="31"/>
       <c r="M2" s="109"/>
@@ -18269,12 +18278,12 @@
       <c r="D3" s="204" t="s">
         <v>2207</v>
       </c>
-      <c r="F3" s="290" t="str">
+      <c r="F3" s="272" t="str">
         <f>IF(D8="","","Click here to check required fields completion")</f>
         <v>Click here to check required fields completion</v>
       </c>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
       <c r="I3" s="132" t="e">
         <f>IF(Checker!D2=0,"",IF(Checker!D2=Checker!F56,"",IF(Checker!D2&gt;0,"1 or more required fields need to be populated")))</f>
         <v>#VALUE!</v>
@@ -18287,22 +18296,22 @@
     </row>
     <row r="4" spans="1:20" ht="36.75" customHeight="1">
       <c r="A4" s="28"/>
-      <c r="B4" s="275" t="str">
+      <c r="B4" s="289" t="str">
         <f>IF($D$3="English",B84,IF($D$3="中文 Chinese",C84,IF($D$3="日本語 Japanese",D84,IF($D$3="한국어 Korean",E84,IF($D$3="Français",F84,IF($D$3="Português",G84,IF($D$3="Deutsch",H84,IF($D$3="Español",I84))))))))</f>
         <v>The purpose of this document is to collect sourcing information on tin, tantalum, tungsten and gold used in products</v>
       </c>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="276" t="s">
+      <c r="C4" s="289"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="290" t="s">
         <v>1770</v>
       </c>
-      <c r="J4" s="276"/>
+      <c r="J4" s="290"/>
       <c r="K4" s="105"/>
-      <c r="L4" s="263"/>
+      <c r="L4" s="280"/>
     </row>
     <row r="5" spans="1:20" s="59" customFormat="1" ht="3" customHeight="1">
       <c r="A5" s="28"/>
@@ -18316,39 +18325,39 @@
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
       <c r="K5" s="105"/>
-      <c r="L5" s="263"/>
+      <c r="L5" s="280"/>
     </row>
     <row r="6" spans="1:20" ht="32.25" customHeight="1">
       <c r="A6" s="28"/>
-      <c r="B6" s="270" t="str">
+      <c r="B6" s="284" t="str">
         <f>IF($D$3="English",B86,IF($D$3="中文 Chinese",C86,IF($D$3="日本語 Japanese",D86,IF($D$3="한국어 Korean",E86,IF($D$3="Français",F86,IF($D$3="Português",G86,IF($D$3="Deutsch",H86,IF($D$3="Español",I86))))))))</f>
         <v>Mandatory fields are noted with an asterisk (*). The information collected in this template should be updated annually. Any changes within the annual cycle should be provided to your customers</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="270"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
       <c r="K6" s="105"/>
-      <c r="L6" s="263"/>
+      <c r="L6" s="280"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" customHeight="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="291" t="str">
+      <c r="B7" s="273" t="str">
         <f>IF($D$3="English",B87,IF($D$3="中文 Chinese",C87,IF($D$3="日本語 Japanese",D87,IF($D$3="한국어 Korean",E87,IF($D$3="Français",F87,IF($D$3="Português",G87,IF($D$3="Deutsch",H87,IF($D$3="Español",I87))))))))</f>
         <v>Company Information</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="273"/>
+      <c r="I7" s="273"/>
+      <c r="J7" s="273"/>
       <c r="K7" s="105"/>
       <c r="L7" s="144"/>
     </row>
@@ -18359,17 +18368,17 @@
         <v>Company Name (*):</v>
       </c>
       <c r="C8" s="60"/>
-      <c r="D8" s="284" t="s">
+      <c r="D8" s="266" t="s">
         <v>2340</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="286"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="268"/>
       <c r="K8" s="161"/>
-      <c r="L8" s="263"/>
+      <c r="L8" s="280"/>
     </row>
     <row r="9" spans="1:20" ht="15.75">
       <c r="A9" s="160"/>
@@ -18378,17 +18387,17 @@
         <v>Declaration Scope (*):</v>
       </c>
       <c r="C9" s="60"/>
-      <c r="D9" s="295" t="s">
+      <c r="D9" s="277" t="s">
         <v>2112</v>
       </c>
-      <c r="E9" s="296"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="297"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="279"/>
       <c r="H9" s="143"/>
       <c r="I9" s="143"/>
       <c r="J9" s="143"/>
       <c r="K9" s="105"/>
-      <c r="L9" s="263"/>
+      <c r="L9" s="280"/>
       <c r="N9" s="27">
         <f>IF(D9=B127,1,0)</f>
         <v>0</v>
@@ -18396,20 +18405,20 @@
     </row>
     <row r="10" spans="1:20" ht="15.75">
       <c r="A10" s="160"/>
-      <c r="B10" s="273" t="str">
+      <c r="B10" s="287" t="str">
         <f>IF($D$3="English",B90,IF($D$3="中文 Chinese",C90,IF($D$3="日本語 Japanese",D90,IF($D$3="한국어 Korean",E90,IF($D$3="Français",F90,IF($D$3="Português",G90,IF($D$3="Deutsch",H90,IF($D$3="Español",I90))))))))</f>
         <v>Description of Scope:</v>
       </c>
       <c r="C10" s="110"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="294"/>
+      <c r="D10" s="274"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
+      <c r="J10" s="276"/>
       <c r="K10" s="105"/>
-      <c r="L10" s="263"/>
+      <c r="L10" s="280"/>
       <c r="N10" s="27">
         <f>IF(D9=B128,1,0)</f>
         <v>0</v>
@@ -18417,20 +18426,20 @@
     </row>
     <row r="11" spans="1:20" ht="19.5">
       <c r="A11" s="160"/>
-      <c r="B11" s="274"/>
+      <c r="B11" s="288"/>
       <c r="C11" s="110"/>
-      <c r="D11" s="287" t="str">
+      <c r="D11" s="269" t="str">
         <f>IF(N11&gt;0,"Click here to enter the products this declaration applies to","")</f>
         <v/>
       </c>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="289"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="270"/>
+      <c r="H11" s="270"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="271"/>
       <c r="K11" s="105"/>
-      <c r="L11" s="263"/>
+      <c r="L11" s="280"/>
       <c r="N11" s="27">
         <f>IF(D9=B129,2,0)</f>
         <v>0</v>
@@ -18443,17 +18452,17 @@
         <v>Company Unique Identifier:</v>
       </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="259" t="s">
+      <c r="D12" s="257" t="s">
         <v>2341</v>
       </c>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="260"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="261"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="258"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="263"/>
+      <c r="L12" s="280"/>
       <c r="N12" s="27">
         <f>SUM(N9:N11)</f>
         <v>0</v>
@@ -18466,17 +18475,17 @@
         <v>Address:</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="259" t="s">
+      <c r="D13" s="257" t="s">
         <v>2342</v>
       </c>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="260"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="261"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="258"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="263"/>
+      <c r="L13" s="280"/>
     </row>
     <row r="14" spans="1:20" ht="15.75">
       <c r="A14" s="160"/>
@@ -18485,17 +18494,17 @@
         <v>Authorized Company Representative Name (*):</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="259" t="s">
+      <c r="D14" s="257" t="s">
         <v>2343</v>
       </c>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="260"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="261"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="258"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="263"/>
+      <c r="L14" s="280"/>
     </row>
     <row r="15" spans="1:20" ht="15.75">
       <c r="A15" s="160"/>
@@ -18504,17 +18513,17 @@
         <v>Representative Title:</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="259" t="s">
+      <c r="D15" s="257" t="s">
         <v>2344</v>
       </c>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="260"/>
-      <c r="I15" s="260"/>
-      <c r="J15" s="261"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="259"/>
+      <c r="J15" s="258"/>
       <c r="K15" s="105"/>
-      <c r="L15" s="263"/>
+      <c r="L15" s="280"/>
     </row>
     <row r="16" spans="1:20" ht="24.75" customHeight="1">
       <c r="A16" s="160"/>
@@ -18523,17 +18532,17 @@
         <v>Representative Email (*):</v>
       </c>
       <c r="C16" s="30"/>
-      <c r="D16" s="267" t="s">
+      <c r="D16" s="281" t="s">
         <v>2345</v>
       </c>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="269"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="282"/>
+      <c r="J16" s="283"/>
       <c r="K16" s="105"/>
-      <c r="L16" s="263"/>
+      <c r="L16" s="280"/>
       <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:16" ht="15.75">
@@ -18543,17 +18552,17 @@
         <v>Representative Phone:</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="259" t="s">
+      <c r="D17" s="257" t="s">
         <v>2346</v>
       </c>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="261"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="258"/>
       <c r="K17" s="105"/>
-      <c r="L17" s="263"/>
+      <c r="L17" s="280"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="160"/>
@@ -18562,10 +18571,10 @@
         <v>Date of Completion (*):</v>
       </c>
       <c r="C18" s="152"/>
-      <c r="D18" s="277">
+      <c r="D18" s="291">
         <v>40328</v>
       </c>
-      <c r="E18" s="278"/>
+      <c r="E18" s="292"/>
       <c r="F18" s="162"/>
       <c r="G18" s="148"/>
       <c r="H18" s="148"/>
@@ -18577,8 +18586,8 @@
       <c r="A19" s="33"/>
       <c r="B19" s="135"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
+      <c r="D19" s="293"/>
+      <c r="E19" s="293"/>
       <c r="F19" s="35"/>
       <c r="G19" s="149"/>
       <c r="H19" s="149"/>
@@ -18590,18 +18599,18 @@
     </row>
     <row r="20" spans="1:16" ht="17.25" customHeight="1">
       <c r="A20" s="151"/>
-      <c r="B20" s="271" t="str">
+      <c r="B20" s="285" t="str">
         <f>IF($D$3="English",B98,IF($D$3="中文 Chinese",C98,IF($D$3="日本語 Japanese",D98,IF($D$3="한국어 Korean",E98,IF($D$3="Français",F98,IF($D$3="Português",G98,IF($D$3="Deutsch",H98,IF($D$3="Español",I98))))))))</f>
         <v>Answer the following questions 1 - 6 based on the declaration scope indicated above</v>
       </c>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="271"/>
-      <c r="J20" s="271"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="285"/>
       <c r="K20" s="153"/>
       <c r="L20" s="38"/>
       <c r="P20" s="109"/>
@@ -18637,15 +18646,15 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C22" s="30"/>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E22" s="261"/>
+      <c r="E22" s="258"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="259"/>
-      <c r="H22" s="260"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="261"/>
+      <c r="G22" s="257"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="259"/>
+      <c r="J22" s="258"/>
       <c r="K22" s="105"/>
       <c r="L22" s="39"/>
       <c r="M22" s="109"/>
@@ -18657,15 +18666,15 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="259" t="s">
+      <c r="D23" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E23" s="261"/>
+      <c r="E23" s="258"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="260"/>
-      <c r="I23" s="260"/>
-      <c r="J23" s="261"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="258"/>
       <c r="K23" s="105"/>
       <c r="L23" s="39"/>
       <c r="N23" s="27">
@@ -18684,15 +18693,15 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C24" s="30"/>
-      <c r="D24" s="259" t="s">
+      <c r="D24" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E24" s="261"/>
+      <c r="E24" s="258"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
-      <c r="J24" s="261"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="259"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="258"/>
       <c r="K24" s="105"/>
       <c r="L24" s="39"/>
       <c r="N24" s="27">
@@ -18711,15 +18720,15 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="259" t="s">
+      <c r="D25" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E25" s="261"/>
+      <c r="E25" s="258"/>
       <c r="F25" s="37"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="260"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="261"/>
+      <c r="G25" s="257"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="258"/>
       <c r="K25" s="105"/>
       <c r="L25" s="39"/>
       <c r="N25" s="27">
@@ -18739,9 +18748,9 @@
       <c r="E26" s="40"/>
       <c r="F26" s="41"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="272"/>
-      <c r="I26" s="272"/>
-      <c r="J26" s="272"/>
+      <c r="H26" s="286"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="286"/>
       <c r="K26" s="105"/>
       <c r="L26" s="39"/>
       <c r="N26" s="27">
@@ -18791,18 +18800,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="259" t="s">
+      <c r="D28" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E28" s="261"/>
+      <c r="E28" s="258"/>
       <c r="F28" s="180">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="259"/>
-      <c r="H28" s="260"/>
-      <c r="I28" s="260"/>
-      <c r="J28" s="261"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="259"/>
+      <c r="J28" s="258"/>
       <c r="K28" s="105"/>
       <c r="L28" s="39"/>
     </row>
@@ -18813,18 +18822,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C29" s="34"/>
-      <c r="D29" s="259" t="s">
+      <c r="D29" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E29" s="261"/>
+      <c r="E29" s="258"/>
       <c r="F29" s="180">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="259"/>
-      <c r="H29" s="260"/>
-      <c r="I29" s="260"/>
-      <c r="J29" s="261"/>
+      <c r="G29" s="257"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="259"/>
+      <c r="J29" s="258"/>
       <c r="K29" s="105"/>
       <c r="L29" s="39"/>
     </row>
@@ -18835,18 +18844,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C30" s="34"/>
-      <c r="D30" s="259" t="s">
+      <c r="D30" s="257" t="s">
         <v>2349</v>
       </c>
-      <c r="E30" s="261"/>
+      <c r="E30" s="258"/>
       <c r="F30" s="180">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="259"/>
-      <c r="H30" s="260"/>
-      <c r="I30" s="260"/>
-      <c r="J30" s="261"/>
+      <c r="G30" s="257"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="259"/>
+      <c r="J30" s="258"/>
       <c r="K30" s="105"/>
       <c r="L30" s="39"/>
     </row>
@@ -18857,18 +18866,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="259" t="s">
+      <c r="D31" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E31" s="261"/>
+      <c r="E31" s="258"/>
       <c r="F31" s="180">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="259"/>
-      <c r="H31" s="260"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="261"/>
+      <c r="G31" s="257"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="259"/>
+      <c r="J31" s="258"/>
       <c r="K31" s="105"/>
       <c r="L31" s="39"/>
     </row>
@@ -18916,18 +18925,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="259" t="s">
+      <c r="D34" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E34" s="261"/>
+      <c r="E34" s="258"/>
       <c r="F34" s="180">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="259"/>
-      <c r="H34" s="260"/>
-      <c r="I34" s="260"/>
-      <c r="J34" s="261"/>
+      <c r="G34" s="257"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="259"/>
+      <c r="J34" s="258"/>
       <c r="K34" s="105"/>
       <c r="L34" s="39"/>
     </row>
@@ -18938,18 +18947,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C35" s="34"/>
-      <c r="D35" s="259" t="s">
+      <c r="D35" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E35" s="261"/>
+      <c r="E35" s="258"/>
       <c r="F35" s="180">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="259"/>
-      <c r="H35" s="260"/>
-      <c r="I35" s="260"/>
-      <c r="J35" s="261"/>
+      <c r="G35" s="257"/>
+      <c r="H35" s="259"/>
+      <c r="I35" s="259"/>
+      <c r="J35" s="258"/>
       <c r="K35" s="105"/>
       <c r="L35" s="39"/>
     </row>
@@ -18960,18 +18969,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C36" s="34"/>
-      <c r="D36" s="259" t="s">
+      <c r="D36" s="257" t="s">
         <v>2349</v>
       </c>
-      <c r="E36" s="261"/>
+      <c r="E36" s="258"/>
       <c r="F36" s="180">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="259"/>
-      <c r="H36" s="260"/>
-      <c r="I36" s="260"/>
-      <c r="J36" s="261"/>
+      <c r="G36" s="257"/>
+      <c r="H36" s="259"/>
+      <c r="I36" s="259"/>
+      <c r="J36" s="258"/>
       <c r="K36" s="105"/>
       <c r="L36" s="39"/>
     </row>
@@ -18982,18 +18991,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="259" t="s">
+      <c r="D37" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E37" s="261"/>
+      <c r="E37" s="258"/>
       <c r="F37" s="180">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="259"/>
-      <c r="H37" s="260"/>
-      <c r="I37" s="260"/>
-      <c r="J37" s="261"/>
+      <c r="G37" s="257"/>
+      <c r="H37" s="259"/>
+      <c r="I37" s="259"/>
+      <c r="J37" s="258"/>
       <c r="K37" s="105"/>
       <c r="L37" s="39"/>
     </row>
@@ -19028,12 +19037,12 @@
         <f>IF($D$3="English",$J$85,IF($D$3="中文 Chinese",$K$85,IF($D$3="日本語 Japanese",$L$85,IF($D$3="한국어 Korean",$M$85,IF($D$3="Français",$N$85,IF($D$3="Português",$O$85,IF($D$3="Deutsch",$P$85,IF($D$3="Español",$Q$85))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="H39" s="266" t="str">
+      <c r="H39" s="296" t="str">
         <f>IF(N27&gt;0,"Click here to enter smelter names","")</f>
         <v>Click here to enter smelter names</v>
       </c>
-      <c r="I39" s="266"/>
-      <c r="J39" s="266"/>
+      <c r="I39" s="296"/>
+      <c r="J39" s="296"/>
       <c r="K39" s="105"/>
       <c r="L39" s="39"/>
     </row>
@@ -19044,18 +19053,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C40" s="30"/>
-      <c r="D40" s="259" t="s">
+      <c r="D40" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E40" s="261"/>
+      <c r="E40" s="258"/>
       <c r="F40" s="180">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="259"/>
-      <c r="H40" s="260"/>
-      <c r="I40" s="260"/>
-      <c r="J40" s="261"/>
+      <c r="G40" s="257"/>
+      <c r="H40" s="259"/>
+      <c r="I40" s="259"/>
+      <c r="J40" s="258"/>
       <c r="K40" s="105"/>
       <c r="L40" s="39"/>
     </row>
@@ -19066,18 +19075,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C41" s="30"/>
-      <c r="D41" s="259" t="s">
+      <c r="D41" s="257" t="s">
         <v>2350</v>
       </c>
-      <c r="E41" s="261"/>
+      <c r="E41" s="258"/>
       <c r="F41" s="180">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="259"/>
-      <c r="H41" s="260"/>
-      <c r="I41" s="260"/>
-      <c r="J41" s="261"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="259"/>
+      <c r="I41" s="259"/>
+      <c r="J41" s="258"/>
       <c r="K41" s="105"/>
       <c r="L41" s="39"/>
     </row>
@@ -19088,18 +19097,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C42" s="30"/>
-      <c r="D42" s="259" t="s">
+      <c r="D42" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E42" s="261"/>
+      <c r="E42" s="258"/>
       <c r="F42" s="180">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="259"/>
-      <c r="H42" s="260"/>
-      <c r="I42" s="260"/>
-      <c r="J42" s="261"/>
+      <c r="G42" s="257"/>
+      <c r="H42" s="259"/>
+      <c r="I42" s="259"/>
+      <c r="J42" s="258"/>
       <c r="K42" s="105"/>
       <c r="L42" s="39"/>
     </row>
@@ -19110,18 +19119,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C43" s="30"/>
-      <c r="D43" s="259" t="s">
+      <c r="D43" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E43" s="261"/>
+      <c r="E43" s="258"/>
       <c r="F43" s="180">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="259"/>
-      <c r="H43" s="260"/>
-      <c r="I43" s="260"/>
-      <c r="J43" s="261"/>
+      <c r="G43" s="257"/>
+      <c r="H43" s="259"/>
+      <c r="I43" s="259"/>
+      <c r="J43" s="258"/>
       <c r="K43" s="105"/>
       <c r="L43" s="39"/>
       <c r="M43" s="32"/>
@@ -19158,12 +19167,12 @@
         <f>IF($D$3="English",$J$85,IF($D$3="中文 Chinese",$K$85,IF($D$3="日本語 Japanese",$L$85,IF($D$3="한국어 Korean",$M$85,IF($D$3="Français",$N$85,IF($D$3="Português",$O$85,IF($D$3="Deutsch",$P$85,IF($D$3="Español",$Q$85))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="H45" s="300" t="str">
+      <c r="H45" s="261" t="str">
         <f>IF(N45&gt;0,"Click here to enter smelter names","")</f>
         <v/>
       </c>
-      <c r="I45" s="300"/>
-      <c r="J45" s="300"/>
+      <c r="I45" s="261"/>
+      <c r="J45" s="261"/>
       <c r="K45" s="105"/>
       <c r="L45" s="39"/>
       <c r="M45" s="32"/>
@@ -19175,18 +19184,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C46" s="34"/>
-      <c r="D46" s="259" t="s">
+      <c r="D46" s="257" t="s">
         <v>2351</v>
       </c>
-      <c r="E46" s="261"/>
+      <c r="E46" s="258"/>
       <c r="F46" s="180">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="259"/>
-      <c r="H46" s="260"/>
-      <c r="I46" s="260"/>
-      <c r="J46" s="261"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="259"/>
+      <c r="I46" s="259"/>
+      <c r="J46" s="258"/>
       <c r="K46" s="105"/>
       <c r="L46" s="39"/>
       <c r="M46" s="32"/>
@@ -19198,18 +19207,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C47" s="34"/>
-      <c r="D47" s="259" t="s">
+      <c r="D47" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E47" s="261"/>
+      <c r="E47" s="258"/>
       <c r="F47" s="180">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="259"/>
-      <c r="H47" s="260"/>
-      <c r="I47" s="260"/>
-      <c r="J47" s="261"/>
+      <c r="G47" s="257"/>
+      <c r="H47" s="259"/>
+      <c r="I47" s="259"/>
+      <c r="J47" s="258"/>
       <c r="K47" s="105"/>
       <c r="L47" s="39"/>
       <c r="M47" s="32"/>
@@ -19221,18 +19230,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C48" s="34"/>
-      <c r="D48" s="259" t="s">
+      <c r="D48" s="257" t="s">
         <v>2351</v>
       </c>
-      <c r="E48" s="261"/>
+      <c r="E48" s="258"/>
       <c r="F48" s="180">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="259"/>
-      <c r="H48" s="260"/>
-      <c r="I48" s="260"/>
-      <c r="J48" s="261"/>
+      <c r="G48" s="257"/>
+      <c r="H48" s="259"/>
+      <c r="I48" s="259"/>
+      <c r="J48" s="258"/>
       <c r="K48" s="105"/>
       <c r="L48" s="39"/>
       <c r="M48" s="32"/>
@@ -19244,18 +19253,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C49" s="34"/>
-      <c r="D49" s="259" t="s">
+      <c r="D49" s="257" t="s">
         <v>2351</v>
       </c>
-      <c r="E49" s="261"/>
+      <c r="E49" s="258"/>
       <c r="F49" s="180">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="259"/>
-      <c r="H49" s="260"/>
-      <c r="I49" s="260"/>
-      <c r="J49" s="261"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="259"/>
+      <c r="I49" s="259"/>
+      <c r="J49" s="258"/>
       <c r="K49" s="105"/>
       <c r="L49" s="39"/>
       <c r="M49" s="32"/>
@@ -19292,11 +19301,11 @@
         <f>IF($D$3="English",$J$85,IF($D$3="中文 Chinese",$K$85,IF($D$3="日本語 Japanese",$L$85,IF($D$3="한국어 Korean",$M$85,IF($D$3="Français",$N$85,IF($D$3="Português",$O$85,IF($D$3="Deutsch",$P$85,IF($D$3="Español",$Q$85))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="H51" s="298" t="s">
+      <c r="H51" s="256" t="s">
         <v>1371</v>
       </c>
-      <c r="I51" s="298"/>
-      <c r="J51" s="298"/>
+      <c r="I51" s="256"/>
+      <c r="J51" s="256"/>
       <c r="K51" s="105"/>
       <c r="L51" s="39"/>
       <c r="M51" s="32"/>
@@ -19308,18 +19317,18 @@
         <v>Tantalum (Ta) (*)</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="259" t="s">
+      <c r="D52" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="182">
         <f>IF(D22="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="259"/>
-      <c r="H52" s="260"/>
-      <c r="I52" s="260"/>
-      <c r="J52" s="261"/>
+      <c r="G52" s="257"/>
+      <c r="H52" s="259"/>
+      <c r="I52" s="259"/>
+      <c r="J52" s="258"/>
       <c r="K52" s="105"/>
       <c r="L52" s="39"/>
       <c r="M52" s="32"/>
@@ -19331,18 +19340,18 @@
         <v>Tin (Sn) (*)</v>
       </c>
       <c r="C53" s="30"/>
-      <c r="D53" s="259" t="s">
+      <c r="D53" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E53" s="261"/>
+      <c r="E53" s="258"/>
       <c r="F53" s="182">
         <f>IF(D23="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="259"/>
-      <c r="H53" s="260"/>
-      <c r="I53" s="260"/>
-      <c r="J53" s="261"/>
+      <c r="G53" s="257"/>
+      <c r="H53" s="259"/>
+      <c r="I53" s="259"/>
+      <c r="J53" s="258"/>
       <c r="K53" s="105"/>
       <c r="L53" s="39"/>
       <c r="M53" s="32"/>
@@ -19354,18 +19363,18 @@
         <v>Gold (Au) (*)</v>
       </c>
       <c r="C54" s="30"/>
-      <c r="D54" s="259" t="s">
+      <c r="D54" s="257" t="s">
         <v>2348</v>
       </c>
-      <c r="E54" s="261"/>
+      <c r="E54" s="258"/>
       <c r="F54" s="182">
         <f>IF(D24="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="259"/>
-      <c r="H54" s="260"/>
-      <c r="I54" s="260"/>
-      <c r="J54" s="261"/>
+      <c r="G54" s="257"/>
+      <c r="H54" s="259"/>
+      <c r="I54" s="259"/>
+      <c r="J54" s="258"/>
       <c r="K54" s="105"/>
       <c r="L54" s="39"/>
       <c r="M54" s="32"/>
@@ -19377,18 +19386,18 @@
         <v>Tungsten (W) (*)</v>
       </c>
       <c r="C55" s="155"/>
-      <c r="D55" s="259" t="s">
+      <c r="D55" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E55" s="261"/>
+      <c r="E55" s="258"/>
       <c r="F55" s="183">
         <f>IF(D25="No",1,0)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="259"/>
-      <c r="H55" s="260"/>
-      <c r="I55" s="260"/>
-      <c r="J55" s="261"/>
+      <c r="G55" s="257"/>
+      <c r="H55" s="259"/>
+      <c r="I55" s="259"/>
+      <c r="J55" s="258"/>
       <c r="K55" s="161"/>
       <c r="L55" s="44"/>
     </row>
@@ -19408,18 +19417,18 @@
     </row>
     <row r="57" spans="1:13" ht="15">
       <c r="A57" s="33"/>
-      <c r="B57" s="299" t="str">
+      <c r="B57" s="260" t="str">
         <f>IF($D$3="English",B105,IF($D$3="中文 Chinese",C105,IF($D$3="日本語 Japanese",D105,IF($D$3="한국어 Korean",E105,IF($D$3="Français",F105,IF($D$3="Português",G105,IF($D$3="Deutsch",H105,IF($D$3="Español",I105))))))))</f>
         <v>Answer the Following Questions at a Company Level</v>
       </c>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
-      <c r="I57" s="299"/>
-      <c r="J57" s="299"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
+      <c r="E57" s="260"/>
+      <c r="F57" s="260"/>
+      <c r="G57" s="260"/>
+      <c r="H57" s="260"/>
+      <c r="I57" s="260"/>
+      <c r="J57" s="260"/>
       <c r="K57" s="105"/>
       <c r="L57" s="46"/>
     </row>
@@ -19436,12 +19445,12 @@
       </c>
       <c r="E58" s="158"/>
       <c r="F58" s="159"/>
-      <c r="G58" s="264" t="str">
+      <c r="G58" s="294" t="str">
         <f>IF($D$3="English",$J$90,IF($D$3="中文 Chinese",$K$90,IF($D$3="日本語 Japanese",$L$90,IF($D$3="한국어 Korean",$M$90,IF($D$3="Français",$N$90,IF($D$3="Português",$O$90,IF($D$3="Deutsch",$P$90,IF($D$3="Español",$Q$90))))))))</f>
         <v>Comments and Attachments</v>
       </c>
-      <c r="H58" s="264"/>
-      <c r="I58" s="264"/>
+      <c r="H58" s="294"/>
+      <c r="I58" s="294"/>
       <c r="J58" s="51"/>
       <c r="K58" s="150"/>
       <c r="L58" s="48"/>
@@ -19454,15 +19463,15 @@
         <v>A. Do you have a policy in place that includes DRC conflict-free sourcing? (*)</v>
       </c>
       <c r="C59" s="47"/>
-      <c r="D59" s="259" t="s">
+      <c r="D59" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E59" s="261"/>
+      <c r="E59" s="258"/>
       <c r="F59" s="47"/>
-      <c r="G59" s="259"/>
-      <c r="H59" s="260"/>
-      <c r="I59" s="260"/>
-      <c r="J59" s="261"/>
+      <c r="G59" s="257"/>
+      <c r="H59" s="259"/>
+      <c r="I59" s="259"/>
+      <c r="J59" s="258"/>
       <c r="K59" s="105"/>
       <c r="L59" s="50"/>
       <c r="M59" s="32"/>
@@ -19474,10 +19483,10 @@
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="265"/>
-      <c r="H60" s="265"/>
-      <c r="I60" s="265"/>
-      <c r="J60" s="265"/>
+      <c r="G60" s="295"/>
+      <c r="H60" s="295"/>
+      <c r="I60" s="295"/>
+      <c r="J60" s="295"/>
       <c r="K60" s="105"/>
       <c r="L60" s="50"/>
       <c r="M60" s="32"/>
@@ -19489,17 +19498,17 @@
         <v>B. Is this policy publicly available on your website? (*)</v>
       </c>
       <c r="C61" s="47"/>
-      <c r="D61" s="259" t="s">
+      <c r="D61" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E61" s="261"/>
+      <c r="E61" s="258"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="259" t="s">
+      <c r="G61" s="257" t="s">
         <v>2352</v>
       </c>
-      <c r="H61" s="260"/>
-      <c r="I61" s="260"/>
-      <c r="J61" s="261"/>
+      <c r="H61" s="259"/>
+      <c r="I61" s="259"/>
+      <c r="J61" s="258"/>
       <c r="K61" s="105"/>
       <c r="L61" s="50"/>
       <c r="M61" s="32"/>
@@ -19526,15 +19535,15 @@
         <v>C. Do you require your direct suppliers to be DRC conflict-free? (*)</v>
       </c>
       <c r="C63" s="47"/>
-      <c r="D63" s="259" t="s">
+      <c r="D63" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E63" s="261"/>
+      <c r="E63" s="258"/>
       <c r="F63" s="47"/>
-      <c r="G63" s="259"/>
-      <c r="H63" s="260"/>
-      <c r="I63" s="260"/>
-      <c r="J63" s="261"/>
+      <c r="G63" s="257"/>
+      <c r="H63" s="259"/>
+      <c r="I63" s="259"/>
+      <c r="J63" s="258"/>
       <c r="K63" s="105"/>
       <c r="L63" s="50"/>
       <c r="M63" s="32"/>
@@ -19561,15 +19570,15 @@
         <v>D. Do you require your direct suppliers to source from smelters validated as compliant to a CFS protocol using the CFS Compliant Smelter List? (*)</v>
       </c>
       <c r="C65" s="47"/>
-      <c r="D65" s="259" t="s">
+      <c r="D65" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E65" s="261"/>
+      <c r="E65" s="258"/>
       <c r="F65" s="47"/>
-      <c r="G65" s="259"/>
-      <c r="H65" s="260"/>
-      <c r="I65" s="260"/>
-      <c r="J65" s="261"/>
+      <c r="G65" s="257"/>
+      <c r="H65" s="259"/>
+      <c r="I65" s="259"/>
+      <c r="J65" s="258"/>
       <c r="K65" s="105"/>
       <c r="L65" s="50"/>
       <c r="M65" s="32"/>
@@ -19596,15 +19605,15 @@
         <v>E. Have you implemented due diligence measures for conflict-free sourcing? (*)</v>
       </c>
       <c r="C67" s="47"/>
-      <c r="D67" s="259" t="s">
+      <c r="D67" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E67" s="261"/>
+      <c r="E67" s="258"/>
       <c r="F67" s="47"/>
-      <c r="G67" s="259"/>
-      <c r="H67" s="260"/>
-      <c r="I67" s="260"/>
-      <c r="J67" s="261"/>
+      <c r="G67" s="257"/>
+      <c r="H67" s="259"/>
+      <c r="I67" s="259"/>
+      <c r="J67" s="258"/>
       <c r="K67" s="105"/>
       <c r="L67" s="50"/>
       <c r="M67" s="32"/>
@@ -19631,15 +19640,15 @@
         <v>F. Do you request your suppliers to fill out this Conflict Minerals Reporting Template? (*)</v>
       </c>
       <c r="C69" s="47"/>
-      <c r="D69" s="259" t="s">
+      <c r="D69" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E69" s="261"/>
+      <c r="E69" s="258"/>
       <c r="F69" s="47"/>
-      <c r="G69" s="259"/>
-      <c r="H69" s="260"/>
-      <c r="I69" s="260"/>
-      <c r="J69" s="261"/>
+      <c r="G69" s="257"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="259"/>
+      <c r="J69" s="258"/>
       <c r="K69" s="105"/>
       <c r="L69" s="50"/>
       <c r="M69" s="32"/>
@@ -19651,10 +19660,10 @@
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="53"/>
-      <c r="G70" s="265"/>
-      <c r="H70" s="265"/>
-      <c r="I70" s="265"/>
-      <c r="J70" s="265"/>
+      <c r="G70" s="295"/>
+      <c r="H70" s="295"/>
+      <c r="I70" s="295"/>
+      <c r="J70" s="295"/>
       <c r="K70" s="105"/>
       <c r="L70" s="50"/>
       <c r="M70" s="32"/>
@@ -19666,15 +19675,15 @@
         <v>G. Do you request smelter names from your suppliers? (*)</v>
       </c>
       <c r="C71" s="47"/>
-      <c r="D71" s="259" t="s">
+      <c r="D71" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E71" s="261"/>
+      <c r="E71" s="258"/>
       <c r="F71" s="47"/>
-      <c r="G71" s="259"/>
-      <c r="H71" s="260"/>
-      <c r="I71" s="260"/>
-      <c r="J71" s="261"/>
+      <c r="G71" s="257"/>
+      <c r="H71" s="259"/>
+      <c r="I71" s="259"/>
+      <c r="J71" s="258"/>
       <c r="K71" s="105"/>
       <c r="L71" s="50"/>
       <c r="M71" s="32"/>
@@ -19686,10 +19695,10 @@
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
       <c r="F72" s="53"/>
-      <c r="G72" s="265"/>
-      <c r="H72" s="265"/>
-      <c r="I72" s="265"/>
-      <c r="J72" s="265"/>
+      <c r="G72" s="295"/>
+      <c r="H72" s="295"/>
+      <c r="I72" s="295"/>
+      <c r="J72" s="295"/>
       <c r="K72" s="105"/>
       <c r="L72" s="50"/>
       <c r="M72" s="32"/>
@@ -19701,15 +19710,15 @@
         <v>H. Do you verify due diligence information received from your suppliers? (*)</v>
       </c>
       <c r="C73" s="47"/>
-      <c r="D73" s="259" t="s">
+      <c r="D73" s="257" t="s">
         <v>2224</v>
       </c>
-      <c r="E73" s="261"/>
+      <c r="E73" s="258"/>
       <c r="F73" s="47"/>
-      <c r="G73" s="259"/>
-      <c r="H73" s="260"/>
-      <c r="I73" s="260"/>
-      <c r="J73" s="261"/>
+      <c r="G73" s="257"/>
+      <c r="H73" s="259"/>
+      <c r="I73" s="259"/>
+      <c r="J73" s="258"/>
       <c r="K73" s="105"/>
       <c r="L73" s="50"/>
       <c r="M73" s="32"/>
@@ -19736,17 +19745,17 @@
         <v>I. Does your verification process include corrective action management? (*)</v>
       </c>
       <c r="C75" s="47"/>
-      <c r="D75" s="259" t="s">
+      <c r="D75" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E75" s="261"/>
+      <c r="E75" s="258"/>
       <c r="F75" s="47"/>
-      <c r="G75" s="259" t="s">
+      <c r="G75" s="257" t="s">
         <v>2354</v>
       </c>
-      <c r="H75" s="260"/>
-      <c r="I75" s="260"/>
-      <c r="J75" s="261"/>
+      <c r="H75" s="259"/>
+      <c r="I75" s="259"/>
+      <c r="J75" s="258"/>
       <c r="K75" s="105"/>
       <c r="L75" s="50"/>
       <c r="M75" s="32"/>
@@ -19773,47 +19782,47 @@
         <v>J. Are you subject to the SEC Conflict Minerals disclosure requirement rule? (*)</v>
       </c>
       <c r="C77" s="47"/>
-      <c r="D77" s="259" t="s">
+      <c r="D77" s="257" t="s">
         <v>2347</v>
       </c>
-      <c r="E77" s="261"/>
+      <c r="E77" s="258"/>
       <c r="F77" s="47"/>
-      <c r="G77" s="259"/>
-      <c r="H77" s="260"/>
-      <c r="I77" s="260"/>
-      <c r="J77" s="261"/>
+      <c r="G77" s="257"/>
+      <c r="H77" s="259"/>
+      <c r="I77" s="259"/>
+      <c r="J77" s="258"/>
       <c r="K77" s="105"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="33"/>
-      <c r="B78" s="258" t="str">
+      <c r="B78" s="299" t="str">
         <f>IF(D8="","","Click here to check required fields completion")</f>
         <v>Click here to check required fields completion</v>
       </c>
-      <c r="C78" s="258"/>
-      <c r="D78" s="258"/>
-      <c r="E78" s="258"/>
-      <c r="F78" s="258"/>
-      <c r="G78" s="258"/>
-      <c r="H78" s="258"/>
-      <c r="I78" s="258"/>
-      <c r="J78" s="258"/>
+      <c r="C78" s="299"/>
+      <c r="D78" s="299"/>
+      <c r="E78" s="299"/>
+      <c r="F78" s="299"/>
+      <c r="G78" s="299"/>
+      <c r="H78" s="299"/>
+      <c r="I78" s="299"/>
+      <c r="J78" s="299"/>
       <c r="K78" s="105"/>
     </row>
     <row r="79" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A79" s="256" t="str">
+      <c r="A79" s="297" t="str">
         <f>IF($D$3="English",B116,IF($D$3="中文 Chinese",C116,IF($D$3="日本語 Japanese",D116,IF($D$3="한국어 Korean",E116,IF($D$3="Français",F116,IF($D$3="Português",G116,IF($D$3="Deutsch",H116,IF($D$3="Español",I116))))))))</f>
         <v>© 2011 Electronic Industry Citizenship Coalition, Incorporated and Global e-Sustainability Initiative. All rights reserved.</v>
       </c>
-      <c r="B79" s="257"/>
-      <c r="C79" s="257"/>
-      <c r="D79" s="257"/>
-      <c r="E79" s="257"/>
-      <c r="F79" s="257"/>
-      <c r="G79" s="257"/>
-      <c r="H79" s="257"/>
-      <c r="I79" s="257"/>
-      <c r="J79" s="257"/>
+      <c r="B79" s="298"/>
+      <c r="C79" s="298"/>
+      <c r="D79" s="298"/>
+      <c r="E79" s="298"/>
+      <c r="F79" s="298"/>
+      <c r="G79" s="298"/>
+      <c r="H79" s="298"/>
+      <c r="I79" s="298"/>
+      <c r="J79" s="298"/>
       <c r="K79" s="106"/>
     </row>
     <row r="80" spans="1:13" ht="13.5" thickTop="1">
@@ -19846,12 +19855,12 @@
       <c r="I81" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="J81" s="262" t="s">
+      <c r="J81" s="300" t="s">
         <v>2215</v>
       </c>
-      <c r="K81" s="263"/>
-      <c r="L81" s="263"/>
-      <c r="M81" s="263"/>
+      <c r="K81" s="280"/>
+      <c r="L81" s="280"/>
+      <c r="M81" s="280"/>
       <c r="O81" s="27"/>
       <c r="R81" s="76"/>
     </row>
@@ -21258,6 +21267,85 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="103">
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="B78:J78"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L8:L17"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="G47:J47"/>
@@ -21282,85 +21370,6 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L8:L17"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="B78:J78"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G67:J67"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D8">
@@ -60077,18 +60086,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="38.25">
-      <c r="A50" s="207">
+    <row r="50" spans="1:10" ht="25.5">
+      <c r="A50" s="207" t="str">
         <f>'Product List'!B6</f>
-        <v>0</v>
+        <v>ABCDEFG12345678</v>
       </c>
       <c r="B50" s="118" t="str">
         <f>IF('Product List'!B6="","No products or item numbers listed","One or more product / item numbers have been provided")</f>
-        <v>No products or item numbers listed</v>
+        <v>One or more product / item numbers have been provided</v>
       </c>
       <c r="C50" s="118" t="str">
         <f>IF(G50=1,"Completed","Must provide 1 or more Products or Item Numbers this declaration applies to.  From declaration tab select hyperlink in cellG16 to enter Product List tab")</f>
-        <v>Must provide 1 or more Products or Item Numbers this declaration applies to.  From declaration tab select hyperlink in cellG16 to enter Product List tab</v>
+        <v>Completed</v>
       </c>
       <c r="D50" s="119" t="str">
         <f>IF(H6=0,"",IF(C50="Completed","","Click here to enter detail on Product List tab"))</f>
@@ -60096,11 +60105,11 @@
       </c>
       <c r="F50" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="115">
         <f>IF(B50="One or more product / item numbers have been provided",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -60128,7 +60137,7 @@
     <row r="52" spans="1:10">
       <c r="F52" s="117">
         <f>SUM(F4:F51)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="125" t="s">
         <v>2106</v>
@@ -61498,8 +61507,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -61514,48 +61523,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.9" customHeight="1" thickTop="1">
-      <c r="A1" s="326" t="str">
+      <c r="A1" s="327" t="str">
         <f>IF(Declaration!$D$3="English",A304,IF(Declaration!$D$3="中文 Chinese",B304,IF(Declaration!$D$3="日本語 Japanese",C304,IF(Declaration!$D$3="한국어 Korean",D304,IF(Declaration!$D$3="Français",E304,IF(Declaration!$D$3="Português",F304,IF(Declaration!$D$3="Deutsch",G304,IF(Declaration!$D$3="Español",H304))))))))</f>
         <v>Completion required only if reporting level "Product-level" selected on the 'Declaration' tab.</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="328"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="329"/>
     </row>
     <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="329"/>
-      <c r="B2" s="331"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="333"/>
+      <c r="A2" s="330"/>
+      <c r="B2" s="332"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="334"/>
       <c r="E2" s="128"/>
       <c r="F2" s="129"/>
-      <c r="G2" s="337"/>
+      <c r="G2" s="338"/>
     </row>
     <row r="3" spans="1:7" ht="63" customHeight="1">
-      <c r="A3" s="329"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="336"/>
+      <c r="A3" s="330"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="173"/>
       <c r="F3" s="130"/>
-      <c r="G3" s="337"/>
+      <c r="G3" s="338"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="329"/>
-      <c r="B4" s="276" t="s">
+      <c r="A4" s="330"/>
+      <c r="B4" s="290" t="s">
         <v>2104</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="337"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="338"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="329"/>
+      <c r="A5" s="330"/>
       <c r="B5" s="190" t="str">
         <f>IF(Declaration!$D$3="English",A305,IF(Declaration!$D$3="中文 Chinese",B305,IF(Declaration!$D$3="日本語 Japanese",C305,IF(Declaration!$D$3="한국어 Korean",D305,IF(Declaration!$D$3="Français",E305,IF(Declaration!$D$3="Português",F305,IF(Declaration!$D$3="Deutsch",G305,IF(Declaration!$D$3="Español",H305))))))))</f>
         <v>Product or Item Number (*)</v>
@@ -61564,2679 +61573,2685 @@
         <f>IF(Declaration!$D$3="English",A306,IF(Declaration!$D$3="中文 Chinese",B306,IF(Declaration!$D$3="日本語 Japanese",C306,IF(Declaration!$D$3="한국어 Korean",D306,IF(Declaration!$D$3="Français",E306,IF(Declaration!$D$3="Português",F306,IF(Declaration!$D$3="Deutsch",G306,IF(Declaration!$D$3="Español",H306))))))))</f>
         <v>Product or Item Description</v>
       </c>
-      <c r="D5" s="339" t="str">
+      <c r="D5" s="340" t="str">
         <f>IF(Declaration!$D$3="English",A307,IF(Declaration!$D$3="中文 Chinese",B307,IF(Declaration!$D$3="日本語 Japanese",C307,IF(Declaration!$D$3="한국어 Korean",D307,IF(Declaration!$D$3="Français",E307,IF(Declaration!$D$3="Português",F307,IF(Declaration!$D$3="Deutsch",G307,IF(Declaration!$D$3="Español",H307))))))))</f>
         <v>Comments</v>
       </c>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="337"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="340"/>
+      <c r="G5" s="338"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="329"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="323"/>
+      <c r="A6" s="330"/>
+      <c r="B6" s="191" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D6" s="323" t="s">
+        <v>2357</v>
+      </c>
       <c r="E6" s="324"/>
       <c r="F6" s="325"/>
-      <c r="G6" s="337"/>
+      <c r="G6" s="338"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="329"/>
+      <c r="A7" s="330"/>
       <c r="B7" s="191"/>
       <c r="C7" s="6"/>
       <c r="D7" s="323"/>
       <c r="E7" s="324"/>
       <c r="F7" s="325"/>
-      <c r="G7" s="337"/>
+      <c r="G7" s="338"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="329"/>
+      <c r="A8" s="330"/>
       <c r="B8" s="191"/>
       <c r="C8" s="6"/>
       <c r="D8" s="323"/>
       <c r="E8" s="324"/>
       <c r="F8" s="325"/>
-      <c r="G8" s="337"/>
+      <c r="G8" s="338"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="329"/>
+      <c r="A9" s="330"/>
       <c r="B9" s="191"/>
       <c r="C9" s="6"/>
       <c r="D9" s="323"/>
       <c r="E9" s="324"/>
       <c r="F9" s="325"/>
-      <c r="G9" s="337"/>
+      <c r="G9" s="338"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="329"/>
+      <c r="A10" s="330"/>
       <c r="B10" s="191"/>
       <c r="C10" s="6"/>
       <c r="D10" s="323"/>
       <c r="E10" s="324"/>
       <c r="F10" s="325"/>
-      <c r="G10" s="337"/>
+      <c r="G10" s="338"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="329"/>
+      <c r="A11" s="330"/>
       <c r="B11" s="191"/>
       <c r="C11" s="6"/>
       <c r="D11" s="323"/>
       <c r="E11" s="324"/>
       <c r="F11" s="325"/>
-      <c r="G11" s="337"/>
+      <c r="G11" s="338"/>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="329"/>
+      <c r="A12" s="330"/>
       <c r="B12" s="191"/>
       <c r="C12" s="6"/>
       <c r="D12" s="323"/>
       <c r="E12" s="324"/>
       <c r="F12" s="325"/>
-      <c r="G12" s="337"/>
+      <c r="G12" s="338"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
-      <c r="A13" s="329"/>
+      <c r="A13" s="330"/>
       <c r="B13" s="191"/>
       <c r="C13" s="6"/>
       <c r="D13" s="323"/>
       <c r="E13" s="324"/>
       <c r="F13" s="325"/>
-      <c r="G13" s="337"/>
+      <c r="G13" s="338"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="329"/>
+      <c r="A14" s="330"/>
       <c r="B14" s="191"/>
       <c r="C14" s="6"/>
       <c r="D14" s="323"/>
       <c r="E14" s="324"/>
       <c r="F14" s="325"/>
-      <c r="G14" s="337"/>
+      <c r="G14" s="338"/>
     </row>
     <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="329"/>
+      <c r="A15" s="330"/>
       <c r="B15" s="191"/>
       <c r="C15" s="6"/>
       <c r="D15" s="323"/>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
-      <c r="G15" s="337"/>
+      <c r="G15" s="338"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="329"/>
+      <c r="A16" s="330"/>
       <c r="B16" s="191"/>
       <c r="C16" s="6"/>
       <c r="D16" s="323"/>
       <c r="E16" s="324"/>
       <c r="F16" s="325"/>
-      <c r="G16" s="337"/>
+      <c r="G16" s="338"/>
     </row>
     <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="329"/>
+      <c r="A17" s="330"/>
       <c r="B17" s="191"/>
       <c r="C17" s="6"/>
       <c r="D17" s="323"/>
       <c r="E17" s="324"/>
       <c r="F17" s="325"/>
-      <c r="G17" s="337"/>
+      <c r="G17" s="338"/>
     </row>
     <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="329"/>
+      <c r="A18" s="330"/>
       <c r="B18" s="191"/>
       <c r="C18" s="6"/>
       <c r="D18" s="323"/>
       <c r="E18" s="324"/>
       <c r="F18" s="325"/>
-      <c r="G18" s="337"/>
+      <c r="G18" s="338"/>
     </row>
     <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="329"/>
+      <c r="A19" s="330"/>
       <c r="B19" s="191"/>
       <c r="C19" s="6"/>
       <c r="D19" s="323"/>
       <c r="E19" s="324"/>
       <c r="F19" s="325"/>
-      <c r="G19" s="337"/>
+      <c r="G19" s="338"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="329"/>
+      <c r="A20" s="330"/>
       <c r="B20" s="191"/>
       <c r="C20" s="6"/>
       <c r="D20" s="323"/>
       <c r="E20" s="324"/>
       <c r="F20" s="325"/>
-      <c r="G20" s="337"/>
+      <c r="G20" s="338"/>
     </row>
     <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="329"/>
+      <c r="A21" s="330"/>
       <c r="B21" s="191"/>
       <c r="C21" s="6"/>
       <c r="D21" s="323"/>
       <c r="E21" s="324"/>
       <c r="F21" s="325"/>
-      <c r="G21" s="337"/>
+      <c r="G21" s="338"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="329"/>
+      <c r="A22" s="330"/>
       <c r="B22" s="191"/>
       <c r="C22" s="6"/>
       <c r="D22" s="323"/>
       <c r="E22" s="324"/>
       <c r="F22" s="325"/>
-      <c r="G22" s="337"/>
+      <c r="G22" s="338"/>
     </row>
     <row r="23" spans="1:7" ht="15.75">
-      <c r="A23" s="329"/>
+      <c r="A23" s="330"/>
       <c r="B23" s="191"/>
       <c r="C23" s="6"/>
       <c r="D23" s="323"/>
       <c r="E23" s="324"/>
       <c r="F23" s="325"/>
-      <c r="G23" s="337"/>
+      <c r="G23" s="338"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
-      <c r="A24" s="329"/>
+      <c r="A24" s="330"/>
       <c r="B24" s="191"/>
       <c r="C24" s="6"/>
       <c r="D24" s="323"/>
       <c r="E24" s="324"/>
       <c r="F24" s="325"/>
-      <c r="G24" s="337"/>
+      <c r="G24" s="338"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="329"/>
+      <c r="A25" s="330"/>
       <c r="B25" s="191"/>
       <c r="C25" s="6"/>
       <c r="D25" s="323"/>
       <c r="E25" s="324"/>
       <c r="F25" s="325"/>
-      <c r="G25" s="337"/>
+      <c r="G25" s="338"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
-      <c r="A26" s="329"/>
+      <c r="A26" s="330"/>
       <c r="B26" s="191"/>
       <c r="C26" s="6"/>
       <c r="D26" s="323"/>
       <c r="E26" s="324"/>
       <c r="F26" s="325"/>
-      <c r="G26" s="337"/>
+      <c r="G26" s="338"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
-      <c r="A27" s="329"/>
+      <c r="A27" s="330"/>
       <c r="B27" s="191"/>
       <c r="C27" s="6"/>
       <c r="D27" s="323"/>
       <c r="E27" s="324"/>
       <c r="F27" s="325"/>
-      <c r="G27" s="337"/>
+      <c r="G27" s="338"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" s="329"/>
+      <c r="A28" s="330"/>
       <c r="B28" s="191"/>
       <c r="C28" s="6"/>
       <c r="D28" s="323"/>
       <c r="E28" s="324"/>
       <c r="F28" s="325"/>
-      <c r="G28" s="337"/>
+      <c r="G28" s="338"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
-      <c r="A29" s="329"/>
+      <c r="A29" s="330"/>
       <c r="B29" s="191"/>
       <c r="C29" s="6"/>
       <c r="D29" s="323"/>
       <c r="E29" s="324"/>
       <c r="F29" s="325"/>
-      <c r="G29" s="337"/>
+      <c r="G29" s="338"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
-      <c r="A30" s="329"/>
+      <c r="A30" s="330"/>
       <c r="B30" s="191"/>
       <c r="C30" s="6"/>
       <c r="D30" s="323"/>
       <c r="E30" s="324"/>
       <c r="F30" s="325"/>
-      <c r="G30" s="337"/>
+      <c r="G30" s="338"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
-      <c r="A31" s="329"/>
+      <c r="A31" s="330"/>
       <c r="B31" s="191"/>
       <c r="C31" s="6"/>
       <c r="D31" s="323"/>
       <c r="E31" s="324"/>
       <c r="F31" s="325"/>
-      <c r="G31" s="337"/>
+      <c r="G31" s="338"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
-      <c r="A32" s="329"/>
+      <c r="A32" s="330"/>
       <c r="B32" s="191"/>
       <c r="C32" s="6"/>
       <c r="D32" s="323"/>
       <c r="E32" s="324"/>
       <c r="F32" s="325"/>
-      <c r="G32" s="337"/>
+      <c r="G32" s="338"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
-      <c r="A33" s="329"/>
+      <c r="A33" s="330"/>
       <c r="B33" s="191"/>
       <c r="C33" s="6"/>
       <c r="D33" s="323"/>
       <c r="E33" s="324"/>
       <c r="F33" s="325"/>
-      <c r="G33" s="337"/>
+      <c r="G33" s="338"/>
     </row>
     <row r="34" spans="1:7" ht="15.75">
-      <c r="A34" s="329"/>
+      <c r="A34" s="330"/>
       <c r="B34" s="191"/>
       <c r="C34" s="6"/>
       <c r="D34" s="323"/>
       <c r="E34" s="324"/>
       <c r="F34" s="325"/>
-      <c r="G34" s="337"/>
+      <c r="G34" s="338"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
-      <c r="A35" s="329"/>
+      <c r="A35" s="330"/>
       <c r="B35" s="191"/>
       <c r="C35" s="6"/>
       <c r="D35" s="323"/>
       <c r="E35" s="324"/>
       <c r="F35" s="325"/>
-      <c r="G35" s="337"/>
+      <c r="G35" s="338"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
-      <c r="A36" s="329"/>
+      <c r="A36" s="330"/>
       <c r="B36" s="191"/>
       <c r="C36" s="6"/>
       <c r="D36" s="323"/>
       <c r="E36" s="324"/>
       <c r="F36" s="325"/>
-      <c r="G36" s="337"/>
+      <c r="G36" s="338"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
-      <c r="A37" s="329"/>
+      <c r="A37" s="330"/>
       <c r="B37" s="191"/>
       <c r="C37" s="6"/>
       <c r="D37" s="323"/>
       <c r="E37" s="324"/>
       <c r="F37" s="325"/>
-      <c r="G37" s="337"/>
+      <c r="G37" s="338"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
-      <c r="A38" s="329"/>
+      <c r="A38" s="330"/>
       <c r="B38" s="191"/>
       <c r="C38" s="6"/>
       <c r="D38" s="323"/>
       <c r="E38" s="324"/>
       <c r="F38" s="325"/>
-      <c r="G38" s="337"/>
+      <c r="G38" s="338"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
-      <c r="A39" s="329"/>
+      <c r="A39" s="330"/>
       <c r="B39" s="191"/>
       <c r="C39" s="6"/>
       <c r="D39" s="323"/>
       <c r="E39" s="324"/>
       <c r="F39" s="325"/>
-      <c r="G39" s="337"/>
+      <c r="G39" s="338"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
-      <c r="A40" s="329"/>
+      <c r="A40" s="330"/>
       <c r="B40" s="191"/>
       <c r="C40" s="6"/>
       <c r="D40" s="323"/>
       <c r="E40" s="324"/>
       <c r="F40" s="325"/>
-      <c r="G40" s="337"/>
+      <c r="G40" s="338"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
-      <c r="A41" s="329"/>
+      <c r="A41" s="330"/>
       <c r="B41" s="191"/>
       <c r="C41" s="6"/>
       <c r="D41" s="323"/>
       <c r="E41" s="324"/>
       <c r="F41" s="325"/>
-      <c r="G41" s="337"/>
+      <c r="G41" s="338"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
-      <c r="A42" s="329"/>
+      <c r="A42" s="330"/>
       <c r="B42" s="191"/>
       <c r="C42" s="6"/>
       <c r="D42" s="323"/>
       <c r="E42" s="324"/>
       <c r="F42" s="325"/>
-      <c r="G42" s="337"/>
+      <c r="G42" s="338"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
-      <c r="A43" s="329"/>
+      <c r="A43" s="330"/>
       <c r="B43" s="191"/>
       <c r="C43" s="6"/>
       <c r="D43" s="323"/>
       <c r="E43" s="324"/>
       <c r="F43" s="325"/>
-      <c r="G43" s="337"/>
+      <c r="G43" s="338"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
-      <c r="A44" s="329"/>
+      <c r="A44" s="330"/>
       <c r="B44" s="191"/>
       <c r="C44" s="6"/>
       <c r="D44" s="323"/>
       <c r="E44" s="324"/>
       <c r="F44" s="325"/>
-      <c r="G44" s="337"/>
+      <c r="G44" s="338"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
-      <c r="A45" s="329"/>
+      <c r="A45" s="330"/>
       <c r="B45" s="191"/>
       <c r="C45" s="6"/>
       <c r="D45" s="323"/>
       <c r="E45" s="324"/>
       <c r="F45" s="325"/>
-      <c r="G45" s="337"/>
+      <c r="G45" s="338"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
-      <c r="A46" s="329"/>
+      <c r="A46" s="330"/>
       <c r="B46" s="191"/>
       <c r="C46" s="6"/>
       <c r="D46" s="323"/>
       <c r="E46" s="324"/>
       <c r="F46" s="325"/>
-      <c r="G46" s="337"/>
+      <c r="G46" s="338"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
-      <c r="A47" s="329"/>
+      <c r="A47" s="330"/>
       <c r="B47" s="191"/>
       <c r="C47" s="6"/>
       <c r="D47" s="323"/>
       <c r="E47" s="324"/>
       <c r="F47" s="325"/>
-      <c r="G47" s="337"/>
+      <c r="G47" s="338"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
-      <c r="A48" s="329"/>
+      <c r="A48" s="330"/>
       <c r="B48" s="191"/>
       <c r="C48" s="6"/>
       <c r="D48" s="323"/>
       <c r="E48" s="324"/>
       <c r="F48" s="325"/>
-      <c r="G48" s="337"/>
+      <c r="G48" s="338"/>
     </row>
     <row r="49" spans="1:7" ht="15.75">
-      <c r="A49" s="329"/>
+      <c r="A49" s="330"/>
       <c r="B49" s="191"/>
       <c r="C49" s="6"/>
       <c r="D49" s="323"/>
       <c r="E49" s="324"/>
       <c r="F49" s="325"/>
-      <c r="G49" s="337"/>
+      <c r="G49" s="338"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
-      <c r="A50" s="329"/>
+      <c r="A50" s="330"/>
       <c r="B50" s="191"/>
       <c r="C50" s="6"/>
       <c r="D50" s="323"/>
       <c r="E50" s="324"/>
       <c r="F50" s="325"/>
-      <c r="G50" s="337"/>
+      <c r="G50" s="338"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
-      <c r="A51" s="329"/>
+      <c r="A51" s="330"/>
       <c r="B51" s="191"/>
       <c r="C51" s="6"/>
       <c r="D51" s="323"/>
       <c r="E51" s="324"/>
       <c r="F51" s="325"/>
-      <c r="G51" s="337"/>
+      <c r="G51" s="338"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
-      <c r="A52" s="329"/>
+      <c r="A52" s="330"/>
       <c r="B52" s="191"/>
       <c r="C52" s="6"/>
       <c r="D52" s="323"/>
       <c r="E52" s="324"/>
       <c r="F52" s="325"/>
-      <c r="G52" s="337"/>
+      <c r="G52" s="338"/>
     </row>
     <row r="53" spans="1:7" ht="15.75">
-      <c r="A53" s="329"/>
+      <c r="A53" s="330"/>
       <c r="B53" s="191"/>
       <c r="C53" s="6"/>
       <c r="D53" s="323"/>
       <c r="E53" s="324"/>
       <c r="F53" s="325"/>
-      <c r="G53" s="337"/>
+      <c r="G53" s="338"/>
     </row>
     <row r="54" spans="1:7" ht="15.75">
-      <c r="A54" s="329"/>
+      <c r="A54" s="330"/>
       <c r="B54" s="191"/>
       <c r="C54" s="6"/>
       <c r="D54" s="323"/>
       <c r="E54" s="324"/>
       <c r="F54" s="325"/>
-      <c r="G54" s="337"/>
+      <c r="G54" s="338"/>
     </row>
     <row r="55" spans="1:7" ht="15.75">
-      <c r="A55" s="329"/>
+      <c r="A55" s="330"/>
       <c r="B55" s="191"/>
       <c r="C55" s="6"/>
       <c r="D55" s="323"/>
       <c r="E55" s="324"/>
       <c r="F55" s="325"/>
-      <c r="G55" s="337"/>
+      <c r="G55" s="338"/>
     </row>
     <row r="56" spans="1:7" ht="15.75">
-      <c r="A56" s="329"/>
+      <c r="A56" s="330"/>
       <c r="B56" s="191"/>
       <c r="C56" s="6"/>
       <c r="D56" s="323"/>
       <c r="E56" s="324"/>
       <c r="F56" s="325"/>
-      <c r="G56" s="337"/>
+      <c r="G56" s="338"/>
     </row>
     <row r="57" spans="1:7" ht="15.75">
-      <c r="A57" s="329"/>
+      <c r="A57" s="330"/>
       <c r="B57" s="191"/>
       <c r="C57" s="6"/>
       <c r="D57" s="323"/>
       <c r="E57" s="324"/>
       <c r="F57" s="325"/>
-      <c r="G57" s="337"/>
+      <c r="G57" s="338"/>
     </row>
     <row r="58" spans="1:7" ht="15.75">
-      <c r="A58" s="329"/>
+      <c r="A58" s="330"/>
       <c r="B58" s="191"/>
       <c r="C58" s="6"/>
       <c r="D58" s="323"/>
       <c r="E58" s="324"/>
       <c r="F58" s="325"/>
-      <c r="G58" s="337"/>
+      <c r="G58" s="338"/>
     </row>
     <row r="59" spans="1:7" ht="15.75">
-      <c r="A59" s="329"/>
+      <c r="A59" s="330"/>
       <c r="B59" s="191"/>
       <c r="C59" s="6"/>
       <c r="D59" s="323"/>
       <c r="E59" s="324"/>
       <c r="F59" s="325"/>
-      <c r="G59" s="337"/>
+      <c r="G59" s="338"/>
     </row>
     <row r="60" spans="1:7" ht="15.75">
-      <c r="A60" s="329"/>
+      <c r="A60" s="330"/>
       <c r="B60" s="191"/>
       <c r="C60" s="6"/>
       <c r="D60" s="323"/>
       <c r="E60" s="324"/>
       <c r="F60" s="325"/>
-      <c r="G60" s="337"/>
+      <c r="G60" s="338"/>
     </row>
     <row r="61" spans="1:7" ht="15.75">
-      <c r="A61" s="329"/>
+      <c r="A61" s="330"/>
       <c r="B61" s="191"/>
       <c r="C61" s="6"/>
       <c r="D61" s="323"/>
       <c r="E61" s="324"/>
       <c r="F61" s="325"/>
-      <c r="G61" s="337"/>
+      <c r="G61" s="338"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
-      <c r="A62" s="329"/>
+      <c r="A62" s="330"/>
       <c r="B62" s="191"/>
       <c r="C62" s="6"/>
       <c r="D62" s="323"/>
       <c r="E62" s="324"/>
       <c r="F62" s="325"/>
-      <c r="G62" s="337"/>
+      <c r="G62" s="338"/>
     </row>
     <row r="63" spans="1:7" ht="15.75">
-      <c r="A63" s="329"/>
+      <c r="A63" s="330"/>
       <c r="B63" s="191"/>
       <c r="C63" s="6"/>
       <c r="D63" s="323"/>
       <c r="E63" s="324"/>
       <c r="F63" s="325"/>
-      <c r="G63" s="337"/>
+      <c r="G63" s="338"/>
     </row>
     <row r="64" spans="1:7" ht="15.75">
-      <c r="A64" s="329"/>
+      <c r="A64" s="330"/>
       <c r="B64" s="191"/>
       <c r="C64" s="6"/>
       <c r="D64" s="323"/>
       <c r="E64" s="324"/>
       <c r="F64" s="325"/>
-      <c r="G64" s="337"/>
+      <c r="G64" s="338"/>
     </row>
     <row r="65" spans="1:7" ht="15.75">
-      <c r="A65" s="329"/>
+      <c r="A65" s="330"/>
       <c r="B65" s="191"/>
       <c r="C65" s="6"/>
       <c r="D65" s="323"/>
       <c r="E65" s="324"/>
       <c r="F65" s="325"/>
-      <c r="G65" s="337"/>
+      <c r="G65" s="338"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
-      <c r="A66" s="329"/>
+      <c r="A66" s="330"/>
       <c r="B66" s="191"/>
       <c r="C66" s="6"/>
       <c r="D66" s="323"/>
       <c r="E66" s="324"/>
       <c r="F66" s="325"/>
-      <c r="G66" s="337"/>
+      <c r="G66" s="338"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
-      <c r="A67" s="329"/>
+      <c r="A67" s="330"/>
       <c r="B67" s="191"/>
       <c r="C67" s="6"/>
       <c r="D67" s="323"/>
       <c r="E67" s="324"/>
       <c r="F67" s="325"/>
-      <c r="G67" s="337"/>
+      <c r="G67" s="338"/>
     </row>
     <row r="68" spans="1:7" ht="15.75">
-      <c r="A68" s="329"/>
+      <c r="A68" s="330"/>
       <c r="B68" s="191"/>
       <c r="C68" s="6"/>
       <c r="D68" s="323"/>
       <c r="E68" s="324"/>
       <c r="F68" s="325"/>
-      <c r="G68" s="337"/>
+      <c r="G68" s="338"/>
     </row>
     <row r="69" spans="1:7" ht="15.75">
-      <c r="A69" s="329"/>
+      <c r="A69" s="330"/>
       <c r="B69" s="191"/>
       <c r="C69" s="6"/>
       <c r="D69" s="323"/>
       <c r="E69" s="324"/>
       <c r="F69" s="325"/>
-      <c r="G69" s="337"/>
+      <c r="G69" s="338"/>
     </row>
     <row r="70" spans="1:7" ht="15.75">
-      <c r="A70" s="329"/>
+      <c r="A70" s="330"/>
       <c r="B70" s="191"/>
       <c r="C70" s="6"/>
       <c r="D70" s="323"/>
       <c r="E70" s="324"/>
       <c r="F70" s="325"/>
-      <c r="G70" s="337"/>
+      <c r="G70" s="338"/>
     </row>
     <row r="71" spans="1:7" ht="15.75">
-      <c r="A71" s="329"/>
+      <c r="A71" s="330"/>
       <c r="B71" s="191"/>
       <c r="C71" s="6"/>
       <c r="D71" s="323"/>
       <c r="E71" s="324"/>
       <c r="F71" s="325"/>
-      <c r="G71" s="337"/>
+      <c r="G71" s="338"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
-      <c r="A72" s="329"/>
+      <c r="A72" s="330"/>
       <c r="B72" s="191"/>
       <c r="C72" s="6"/>
       <c r="D72" s="323"/>
       <c r="E72" s="324"/>
       <c r="F72" s="325"/>
-      <c r="G72" s="337"/>
+      <c r="G72" s="338"/>
     </row>
     <row r="73" spans="1:7" ht="15.75">
-      <c r="A73" s="329"/>
+      <c r="A73" s="330"/>
       <c r="B73" s="191"/>
       <c r="C73" s="6"/>
       <c r="D73" s="323"/>
       <c r="E73" s="324"/>
       <c r="F73" s="325"/>
-      <c r="G73" s="337"/>
+      <c r="G73" s="338"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
-      <c r="A74" s="329"/>
+      <c r="A74" s="330"/>
       <c r="B74" s="191"/>
       <c r="C74" s="6"/>
       <c r="D74" s="323"/>
       <c r="E74" s="324"/>
       <c r="F74" s="325"/>
-      <c r="G74" s="337"/>
+      <c r="G74" s="338"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
-      <c r="A75" s="329"/>
+      <c r="A75" s="330"/>
       <c r="B75" s="191"/>
       <c r="C75" s="6"/>
       <c r="D75" s="323"/>
       <c r="E75" s="324"/>
       <c r="F75" s="325"/>
-      <c r="G75" s="337"/>
+      <c r="G75" s="338"/>
     </row>
     <row r="76" spans="1:7" ht="15.75">
-      <c r="A76" s="329"/>
+      <c r="A76" s="330"/>
       <c r="B76" s="191"/>
       <c r="C76" s="6"/>
       <c r="D76" s="323"/>
       <c r="E76" s="324"/>
       <c r="F76" s="325"/>
-      <c r="G76" s="337"/>
+      <c r="G76" s="338"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
-      <c r="A77" s="329"/>
+      <c r="A77" s="330"/>
       <c r="B77" s="191"/>
       <c r="C77" s="6"/>
       <c r="D77" s="323"/>
       <c r="E77" s="324"/>
       <c r="F77" s="325"/>
-      <c r="G77" s="337"/>
+      <c r="G77" s="338"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
-      <c r="A78" s="329"/>
+      <c r="A78" s="330"/>
       <c r="B78" s="191"/>
       <c r="C78" s="6"/>
       <c r="D78" s="323"/>
       <c r="E78" s="324"/>
       <c r="F78" s="325"/>
-      <c r="G78" s="337"/>
+      <c r="G78" s="338"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
-      <c r="A79" s="329"/>
+      <c r="A79" s="330"/>
       <c r="B79" s="191"/>
       <c r="C79" s="6"/>
       <c r="D79" s="323"/>
       <c r="E79" s="324"/>
       <c r="F79" s="325"/>
-      <c r="G79" s="337"/>
+      <c r="G79" s="338"/>
     </row>
     <row r="80" spans="1:7" ht="15.75">
-      <c r="A80" s="329"/>
+      <c r="A80" s="330"/>
       <c r="B80" s="191"/>
       <c r="C80" s="6"/>
       <c r="D80" s="323"/>
       <c r="E80" s="324"/>
       <c r="F80" s="325"/>
-      <c r="G80" s="337"/>
+      <c r="G80" s="338"/>
     </row>
     <row r="81" spans="1:7" ht="15.75">
-      <c r="A81" s="329"/>
+      <c r="A81" s="330"/>
       <c r="B81" s="191"/>
       <c r="C81" s="6"/>
       <c r="D81" s="323"/>
       <c r="E81" s="324"/>
       <c r="F81" s="325"/>
-      <c r="G81" s="337"/>
+      <c r="G81" s="338"/>
     </row>
     <row r="82" spans="1:7" ht="15.75">
-      <c r="A82" s="329"/>
+      <c r="A82" s="330"/>
       <c r="B82" s="191"/>
       <c r="C82" s="6"/>
       <c r="D82" s="323"/>
       <c r="E82" s="324"/>
       <c r="F82" s="325"/>
-      <c r="G82" s="337"/>
+      <c r="G82" s="338"/>
     </row>
     <row r="83" spans="1:7" ht="15.75">
-      <c r="A83" s="329"/>
+      <c r="A83" s="330"/>
       <c r="B83" s="191"/>
       <c r="C83" s="6"/>
       <c r="D83" s="323"/>
       <c r="E83" s="324"/>
       <c r="F83" s="325"/>
-      <c r="G83" s="337"/>
+      <c r="G83" s="338"/>
     </row>
     <row r="84" spans="1:7" ht="15.75">
-      <c r="A84" s="329"/>
+      <c r="A84" s="330"/>
       <c r="B84" s="191"/>
       <c r="C84" s="6"/>
       <c r="D84" s="323"/>
       <c r="E84" s="324"/>
       <c r="F84" s="325"/>
-      <c r="G84" s="337"/>
+      <c r="G84" s="338"/>
     </row>
     <row r="85" spans="1:7" ht="15.75">
-      <c r="A85" s="329"/>
+      <c r="A85" s="330"/>
       <c r="B85" s="191"/>
       <c r="C85" s="6"/>
       <c r="D85" s="323"/>
       <c r="E85" s="324"/>
       <c r="F85" s="325"/>
-      <c r="G85" s="337"/>
+      <c r="G85" s="338"/>
     </row>
     <row r="86" spans="1:7" ht="15.75">
-      <c r="A86" s="329"/>
+      <c r="A86" s="330"/>
       <c r="B86" s="191"/>
       <c r="C86" s="6"/>
       <c r="D86" s="323"/>
       <c r="E86" s="324"/>
       <c r="F86" s="325"/>
-      <c r="G86" s="337"/>
+      <c r="G86" s="338"/>
     </row>
     <row r="87" spans="1:7" ht="15.75">
-      <c r="A87" s="329"/>
+      <c r="A87" s="330"/>
       <c r="B87" s="191"/>
       <c r="C87" s="6"/>
       <c r="D87" s="323"/>
       <c r="E87" s="324"/>
       <c r="F87" s="325"/>
-      <c r="G87" s="337"/>
+      <c r="G87" s="338"/>
     </row>
     <row r="88" spans="1:7" ht="15.75">
-      <c r="A88" s="329"/>
+      <c r="A88" s="330"/>
       <c r="B88" s="191"/>
       <c r="C88" s="6"/>
       <c r="D88" s="323"/>
       <c r="E88" s="324"/>
       <c r="F88" s="325"/>
-      <c r="G88" s="337"/>
+      <c r="G88" s="338"/>
     </row>
     <row r="89" spans="1:7" ht="15.75">
-      <c r="A89" s="329"/>
+      <c r="A89" s="330"/>
       <c r="B89" s="191"/>
       <c r="C89" s="6"/>
       <c r="D89" s="323"/>
       <c r="E89" s="324"/>
       <c r="F89" s="325"/>
-      <c r="G89" s="337"/>
+      <c r="G89" s="338"/>
     </row>
     <row r="90" spans="1:7" ht="15.75">
-      <c r="A90" s="329"/>
+      <c r="A90" s="330"/>
       <c r="B90" s="191"/>
       <c r="C90" s="6"/>
       <c r="D90" s="323"/>
       <c r="E90" s="324"/>
       <c r="F90" s="325"/>
-      <c r="G90" s="337"/>
+      <c r="G90" s="338"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
-      <c r="A91" s="329"/>
+      <c r="A91" s="330"/>
       <c r="B91" s="191"/>
       <c r="C91" s="6"/>
       <c r="D91" s="323"/>
       <c r="E91" s="324"/>
       <c r="F91" s="325"/>
-      <c r="G91" s="337"/>
+      <c r="G91" s="338"/>
     </row>
     <row r="92" spans="1:7" ht="15.75">
-      <c r="A92" s="329"/>
+      <c r="A92" s="330"/>
       <c r="B92" s="191"/>
       <c r="C92" s="6"/>
       <c r="D92" s="323"/>
       <c r="E92" s="324"/>
       <c r="F92" s="325"/>
-      <c r="G92" s="337"/>
+      <c r="G92" s="338"/>
     </row>
     <row r="93" spans="1:7" ht="15.75">
-      <c r="A93" s="329"/>
+      <c r="A93" s="330"/>
       <c r="B93" s="191"/>
       <c r="C93" s="6"/>
       <c r="D93" s="323"/>
       <c r="E93" s="324"/>
       <c r="F93" s="325"/>
-      <c r="G93" s="337"/>
+      <c r="G93" s="338"/>
     </row>
     <row r="94" spans="1:7" ht="15.75">
-      <c r="A94" s="329"/>
+      <c r="A94" s="330"/>
       <c r="B94" s="191"/>
       <c r="C94" s="6"/>
       <c r="D94" s="323"/>
       <c r="E94" s="324"/>
       <c r="F94" s="325"/>
-      <c r="G94" s="337"/>
+      <c r="G94" s="338"/>
     </row>
     <row r="95" spans="1:7" ht="15.75">
-      <c r="A95" s="329"/>
+      <c r="A95" s="330"/>
       <c r="B95" s="191"/>
       <c r="C95" s="6"/>
       <c r="D95" s="323"/>
       <c r="E95" s="324"/>
       <c r="F95" s="325"/>
-      <c r="G95" s="337"/>
+      <c r="G95" s="338"/>
     </row>
     <row r="96" spans="1:7" ht="15.75">
-      <c r="A96" s="329"/>
+      <c r="A96" s="330"/>
       <c r="B96" s="191"/>
       <c r="C96" s="6"/>
       <c r="D96" s="323"/>
       <c r="E96" s="324"/>
       <c r="F96" s="325"/>
-      <c r="G96" s="337"/>
+      <c r="G96" s="338"/>
     </row>
     <row r="97" spans="1:7" ht="15.75">
-      <c r="A97" s="329"/>
+      <c r="A97" s="330"/>
       <c r="B97" s="191"/>
       <c r="C97" s="6"/>
       <c r="D97" s="323"/>
       <c r="E97" s="324"/>
       <c r="F97" s="325"/>
-      <c r="G97" s="337"/>
+      <c r="G97" s="338"/>
     </row>
     <row r="98" spans="1:7" ht="15.75">
-      <c r="A98" s="329"/>
+      <c r="A98" s="330"/>
       <c r="B98" s="191"/>
       <c r="C98" s="6"/>
       <c r="D98" s="323"/>
       <c r="E98" s="324"/>
       <c r="F98" s="325"/>
-      <c r="G98" s="337"/>
+      <c r="G98" s="338"/>
     </row>
     <row r="99" spans="1:7" ht="15.75">
-      <c r="A99" s="329"/>
+      <c r="A99" s="330"/>
       <c r="B99" s="191"/>
       <c r="C99" s="6"/>
       <c r="D99" s="323"/>
       <c r="E99" s="324"/>
       <c r="F99" s="325"/>
-      <c r="G99" s="337"/>
+      <c r="G99" s="338"/>
     </row>
     <row r="100" spans="1:7" ht="15.75">
-      <c r="A100" s="329"/>
+      <c r="A100" s="330"/>
       <c r="B100" s="191"/>
       <c r="C100" s="6"/>
       <c r="D100" s="323"/>
       <c r="E100" s="324"/>
       <c r="F100" s="325"/>
-      <c r="G100" s="337"/>
+      <c r="G100" s="338"/>
     </row>
     <row r="101" spans="1:7" ht="15.75">
-      <c r="A101" s="329"/>
+      <c r="A101" s="330"/>
       <c r="B101" s="192"/>
       <c r="C101" s="58"/>
       <c r="D101" s="323"/>
       <c r="E101" s="324"/>
       <c r="F101" s="325"/>
-      <c r="G101" s="337"/>
+      <c r="G101" s="338"/>
     </row>
     <row r="102" spans="1:7" ht="15.75">
-      <c r="A102" s="329"/>
+      <c r="A102" s="330"/>
       <c r="B102" s="192"/>
       <c r="C102" s="58"/>
       <c r="D102" s="323"/>
       <c r="E102" s="324"/>
       <c r="F102" s="325"/>
-      <c r="G102" s="337"/>
+      <c r="G102" s="338"/>
     </row>
     <row r="103" spans="1:7" ht="15.75">
-      <c r="A103" s="329"/>
+      <c r="A103" s="330"/>
       <c r="B103" s="192"/>
       <c r="C103" s="58"/>
       <c r="D103" s="323"/>
       <c r="E103" s="324"/>
       <c r="F103" s="325"/>
-      <c r="G103" s="337"/>
+      <c r="G103" s="338"/>
     </row>
     <row r="104" spans="1:7" ht="15.75">
-      <c r="A104" s="329"/>
+      <c r="A104" s="330"/>
       <c r="B104" s="192"/>
       <c r="C104" s="58"/>
       <c r="D104" s="323"/>
       <c r="E104" s="324"/>
       <c r="F104" s="325"/>
-      <c r="G104" s="337"/>
+      <c r="G104" s="338"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="329"/>
+      <c r="A105" s="330"/>
       <c r="B105" s="192"/>
       <c r="C105" s="58"/>
       <c r="D105" s="323"/>
       <c r="E105" s="324"/>
       <c r="F105" s="325"/>
-      <c r="G105" s="337"/>
+      <c r="G105" s="338"/>
     </row>
     <row r="106" spans="1:7" ht="15.75">
-      <c r="A106" s="329"/>
+      <c r="A106" s="330"/>
       <c r="B106" s="192"/>
       <c r="C106" s="58"/>
       <c r="D106" s="323"/>
       <c r="E106" s="324"/>
       <c r="F106" s="325"/>
-      <c r="G106" s="337"/>
+      <c r="G106" s="338"/>
     </row>
     <row r="107" spans="1:7" ht="15.75">
-      <c r="A107" s="329"/>
+      <c r="A107" s="330"/>
       <c r="B107" s="192"/>
       <c r="C107" s="58"/>
       <c r="D107" s="323"/>
       <c r="E107" s="324"/>
       <c r="F107" s="325"/>
-      <c r="G107" s="337"/>
+      <c r="G107" s="338"/>
     </row>
     <row r="108" spans="1:7" ht="15.75">
-      <c r="A108" s="329"/>
+      <c r="A108" s="330"/>
       <c r="B108" s="192"/>
       <c r="C108" s="58"/>
       <c r="D108" s="323"/>
       <c r="E108" s="324"/>
       <c r="F108" s="325"/>
-      <c r="G108" s="337"/>
+      <c r="G108" s="338"/>
     </row>
     <row r="109" spans="1:7" ht="15.75">
-      <c r="A109" s="329"/>
+      <c r="A109" s="330"/>
       <c r="B109" s="192"/>
       <c r="C109" s="58"/>
       <c r="D109" s="323"/>
       <c r="E109" s="324"/>
       <c r="F109" s="325"/>
-      <c r="G109" s="337"/>
+      <c r="G109" s="338"/>
     </row>
     <row r="110" spans="1:7" ht="15.75">
-      <c r="A110" s="329"/>
+      <c r="A110" s="330"/>
       <c r="B110" s="192"/>
       <c r="C110" s="58"/>
       <c r="D110" s="323"/>
       <c r="E110" s="324"/>
       <c r="F110" s="325"/>
-      <c r="G110" s="337"/>
+      <c r="G110" s="338"/>
     </row>
     <row r="111" spans="1:7" ht="15.75">
-      <c r="A111" s="329"/>
+      <c r="A111" s="330"/>
       <c r="B111" s="192"/>
       <c r="C111" s="58"/>
       <c r="D111" s="323"/>
       <c r="E111" s="324"/>
       <c r="F111" s="325"/>
-      <c r="G111" s="337"/>
+      <c r="G111" s="338"/>
     </row>
     <row r="112" spans="1:7" ht="15.75">
-      <c r="A112" s="329"/>
+      <c r="A112" s="330"/>
       <c r="B112" s="192"/>
       <c r="C112" s="58"/>
       <c r="D112" s="323"/>
       <c r="E112" s="324"/>
       <c r="F112" s="325"/>
-      <c r="G112" s="337"/>
+      <c r="G112" s="338"/>
     </row>
     <row r="113" spans="1:7" ht="15.75">
-      <c r="A113" s="329"/>
+      <c r="A113" s="330"/>
       <c r="B113" s="192"/>
       <c r="C113" s="58"/>
       <c r="D113" s="323"/>
       <c r="E113" s="324"/>
       <c r="F113" s="325"/>
-      <c r="G113" s="337"/>
+      <c r="G113" s="338"/>
     </row>
     <row r="114" spans="1:7" ht="15.75">
-      <c r="A114" s="329"/>
+      <c r="A114" s="330"/>
       <c r="B114" s="192"/>
       <c r="C114" s="58"/>
       <c r="D114" s="323"/>
       <c r="E114" s="324"/>
       <c r="F114" s="325"/>
-      <c r="G114" s="337"/>
+      <c r="G114" s="338"/>
     </row>
     <row r="115" spans="1:7" ht="15.75">
-      <c r="A115" s="329"/>
+      <c r="A115" s="330"/>
       <c r="B115" s="192"/>
       <c r="C115" s="58"/>
       <c r="D115" s="323"/>
       <c r="E115" s="324"/>
       <c r="F115" s="325"/>
-      <c r="G115" s="337"/>
+      <c r="G115" s="338"/>
     </row>
     <row r="116" spans="1:7" ht="15.75">
-      <c r="A116" s="329"/>
+      <c r="A116" s="330"/>
       <c r="B116" s="192"/>
       <c r="C116" s="58"/>
       <c r="D116" s="323"/>
       <c r="E116" s="324"/>
       <c r="F116" s="325"/>
-      <c r="G116" s="337"/>
+      <c r="G116" s="338"/>
     </row>
     <row r="117" spans="1:7" ht="15.75">
-      <c r="A117" s="329"/>
+      <c r="A117" s="330"/>
       <c r="B117" s="192"/>
       <c r="C117" s="58"/>
       <c r="D117" s="323"/>
       <c r="E117" s="324"/>
       <c r="F117" s="325"/>
-      <c r="G117" s="337"/>
+      <c r="G117" s="338"/>
     </row>
     <row r="118" spans="1:7" ht="15.75">
-      <c r="A118" s="329"/>
+      <c r="A118" s="330"/>
       <c r="B118" s="192"/>
       <c r="C118" s="58"/>
       <c r="D118" s="323"/>
       <c r="E118" s="324"/>
       <c r="F118" s="325"/>
-      <c r="G118" s="337"/>
+      <c r="G118" s="338"/>
     </row>
     <row r="119" spans="1:7" ht="15.75">
-      <c r="A119" s="329"/>
+      <c r="A119" s="330"/>
       <c r="B119" s="192"/>
       <c r="C119" s="58"/>
       <c r="D119" s="323"/>
       <c r="E119" s="324"/>
       <c r="F119" s="325"/>
-      <c r="G119" s="337"/>
+      <c r="G119" s="338"/>
     </row>
     <row r="120" spans="1:7" ht="15.75">
-      <c r="A120" s="329"/>
+      <c r="A120" s="330"/>
       <c r="B120" s="192"/>
       <c r="C120" s="58"/>
       <c r="D120" s="323"/>
       <c r="E120" s="324"/>
       <c r="F120" s="325"/>
-      <c r="G120" s="337"/>
+      <c r="G120" s="338"/>
     </row>
     <row r="121" spans="1:7" ht="15.75">
-      <c r="A121" s="329"/>
+      <c r="A121" s="330"/>
       <c r="B121" s="192"/>
       <c r="C121" s="58"/>
       <c r="D121" s="323"/>
       <c r="E121" s="324"/>
       <c r="F121" s="325"/>
-      <c r="G121" s="337"/>
+      <c r="G121" s="338"/>
     </row>
     <row r="122" spans="1:7" ht="15.75">
-      <c r="A122" s="329"/>
+      <c r="A122" s="330"/>
       <c r="B122" s="192"/>
       <c r="C122" s="58"/>
       <c r="D122" s="323"/>
       <c r="E122" s="324"/>
       <c r="F122" s="325"/>
-      <c r="G122" s="337"/>
+      <c r="G122" s="338"/>
     </row>
     <row r="123" spans="1:7" ht="15.75">
-      <c r="A123" s="329"/>
+      <c r="A123" s="330"/>
       <c r="B123" s="192"/>
       <c r="C123" s="58"/>
       <c r="D123" s="323"/>
       <c r="E123" s="324"/>
       <c r="F123" s="325"/>
-      <c r="G123" s="337"/>
+      <c r="G123" s="338"/>
     </row>
     <row r="124" spans="1:7" ht="15.75">
-      <c r="A124" s="329"/>
+      <c r="A124" s="330"/>
       <c r="B124" s="192"/>
       <c r="C124" s="58"/>
       <c r="D124" s="323"/>
       <c r="E124" s="324"/>
       <c r="F124" s="325"/>
-      <c r="G124" s="337"/>
+      <c r="G124" s="338"/>
     </row>
     <row r="125" spans="1:7" ht="15.75">
-      <c r="A125" s="329"/>
+      <c r="A125" s="330"/>
       <c r="B125" s="192"/>
       <c r="C125" s="58"/>
       <c r="D125" s="323"/>
       <c r="E125" s="324"/>
       <c r="F125" s="325"/>
-      <c r="G125" s="337"/>
+      <c r="G125" s="338"/>
     </row>
     <row r="126" spans="1:7" ht="15.75">
-      <c r="A126" s="329"/>
+      <c r="A126" s="330"/>
       <c r="B126" s="192"/>
       <c r="C126" s="58"/>
       <c r="D126" s="323"/>
       <c r="E126" s="324"/>
       <c r="F126" s="325"/>
-      <c r="G126" s="337"/>
+      <c r="G126" s="338"/>
     </row>
     <row r="127" spans="1:7" ht="15.75">
-      <c r="A127" s="329"/>
+      <c r="A127" s="330"/>
       <c r="B127" s="192"/>
       <c r="C127" s="58"/>
       <c r="D127" s="323"/>
       <c r="E127" s="324"/>
       <c r="F127" s="325"/>
-      <c r="G127" s="337"/>
+      <c r="G127" s="338"/>
     </row>
     <row r="128" spans="1:7" ht="15.75">
-      <c r="A128" s="329"/>
+      <c r="A128" s="330"/>
       <c r="B128" s="192"/>
       <c r="C128" s="58"/>
       <c r="D128" s="323"/>
       <c r="E128" s="324"/>
       <c r="F128" s="325"/>
-      <c r="G128" s="337"/>
+      <c r="G128" s="338"/>
     </row>
     <row r="129" spans="1:7" ht="15.75">
-      <c r="A129" s="329"/>
+      <c r="A129" s="330"/>
       <c r="B129" s="192"/>
       <c r="C129" s="58"/>
       <c r="D129" s="323"/>
       <c r="E129" s="324"/>
       <c r="F129" s="325"/>
-      <c r="G129" s="337"/>
+      <c r="G129" s="338"/>
     </row>
     <row r="130" spans="1:7" ht="15.75">
-      <c r="A130" s="329"/>
+      <c r="A130" s="330"/>
       <c r="B130" s="192"/>
       <c r="C130" s="58"/>
       <c r="D130" s="323"/>
       <c r="E130" s="324"/>
       <c r="F130" s="325"/>
-      <c r="G130" s="337"/>
+      <c r="G130" s="338"/>
     </row>
     <row r="131" spans="1:7" ht="15.75">
-      <c r="A131" s="329"/>
+      <c r="A131" s="330"/>
       <c r="B131" s="192"/>
       <c r="C131" s="58"/>
       <c r="D131" s="323"/>
       <c r="E131" s="324"/>
       <c r="F131" s="325"/>
-      <c r="G131" s="337"/>
+      <c r="G131" s="338"/>
     </row>
     <row r="132" spans="1:7" ht="15.75">
-      <c r="A132" s="329"/>
+      <c r="A132" s="330"/>
       <c r="B132" s="192"/>
       <c r="C132" s="58"/>
       <c r="D132" s="323"/>
       <c r="E132" s="324"/>
       <c r="F132" s="325"/>
-      <c r="G132" s="337"/>
+      <c r="G132" s="338"/>
     </row>
     <row r="133" spans="1:7" ht="15.75">
-      <c r="A133" s="329"/>
+      <c r="A133" s="330"/>
       <c r="B133" s="192"/>
       <c r="C133" s="58"/>
       <c r="D133" s="323"/>
       <c r="E133" s="324"/>
       <c r="F133" s="325"/>
-      <c r="G133" s="337"/>
+      <c r="G133" s="338"/>
     </row>
     <row r="134" spans="1:7" ht="15.75">
-      <c r="A134" s="329"/>
+      <c r="A134" s="330"/>
       <c r="B134" s="192"/>
       <c r="C134" s="58"/>
       <c r="D134" s="323"/>
       <c r="E134" s="324"/>
       <c r="F134" s="325"/>
-      <c r="G134" s="337"/>
+      <c r="G134" s="338"/>
     </row>
     <row r="135" spans="1:7" ht="15.75">
-      <c r="A135" s="329"/>
+      <c r="A135" s="330"/>
       <c r="B135" s="192"/>
       <c r="C135" s="58"/>
       <c r="D135" s="323"/>
       <c r="E135" s="324"/>
       <c r="F135" s="325"/>
-      <c r="G135" s="337"/>
+      <c r="G135" s="338"/>
     </row>
     <row r="136" spans="1:7" ht="15.75">
-      <c r="A136" s="329"/>
+      <c r="A136" s="330"/>
       <c r="B136" s="192"/>
       <c r="C136" s="58"/>
       <c r="D136" s="323"/>
       <c r="E136" s="324"/>
       <c r="F136" s="325"/>
-      <c r="G136" s="337"/>
+      <c r="G136" s="338"/>
     </row>
     <row r="137" spans="1:7" ht="15.75">
-      <c r="A137" s="329"/>
+      <c r="A137" s="330"/>
       <c r="B137" s="192"/>
       <c r="C137" s="58"/>
       <c r="D137" s="323"/>
       <c r="E137" s="324"/>
       <c r="F137" s="325"/>
-      <c r="G137" s="337"/>
+      <c r="G137" s="338"/>
     </row>
     <row r="138" spans="1:7" ht="15.75">
-      <c r="A138" s="329"/>
+      <c r="A138" s="330"/>
       <c r="B138" s="192"/>
       <c r="C138" s="58"/>
       <c r="D138" s="323"/>
       <c r="E138" s="324"/>
       <c r="F138" s="325"/>
-      <c r="G138" s="337"/>
+      <c r="G138" s="338"/>
     </row>
     <row r="139" spans="1:7" ht="15.75">
-      <c r="A139" s="329"/>
+      <c r="A139" s="330"/>
       <c r="B139" s="192"/>
       <c r="C139" s="58"/>
       <c r="D139" s="323"/>
       <c r="E139" s="324"/>
       <c r="F139" s="325"/>
-      <c r="G139" s="337"/>
+      <c r="G139" s="338"/>
     </row>
     <row r="140" spans="1:7" ht="15.75">
-      <c r="A140" s="329"/>
+      <c r="A140" s="330"/>
       <c r="B140" s="192"/>
       <c r="C140" s="58"/>
       <c r="D140" s="323"/>
       <c r="E140" s="324"/>
       <c r="F140" s="325"/>
-      <c r="G140" s="337"/>
+      <c r="G140" s="338"/>
     </row>
     <row r="141" spans="1:7" ht="15.75">
-      <c r="A141" s="329"/>
+      <c r="A141" s="330"/>
       <c r="B141" s="192"/>
       <c r="C141" s="58"/>
       <c r="D141" s="323"/>
       <c r="E141" s="324"/>
       <c r="F141" s="325"/>
-      <c r="G141" s="337"/>
+      <c r="G141" s="338"/>
     </row>
     <row r="142" spans="1:7" ht="15.75">
-      <c r="A142" s="329"/>
+      <c r="A142" s="330"/>
       <c r="B142" s="192"/>
       <c r="C142" s="58"/>
       <c r="D142" s="323"/>
       <c r="E142" s="324"/>
       <c r="F142" s="325"/>
-      <c r="G142" s="337"/>
+      <c r="G142" s="338"/>
     </row>
     <row r="143" spans="1:7" ht="15.75">
-      <c r="A143" s="329"/>
+      <c r="A143" s="330"/>
       <c r="B143" s="192"/>
       <c r="C143" s="58"/>
       <c r="D143" s="323"/>
       <c r="E143" s="324"/>
       <c r="F143" s="325"/>
-      <c r="G143" s="337"/>
+      <c r="G143" s="338"/>
     </row>
     <row r="144" spans="1:7" ht="15.75">
-      <c r="A144" s="329"/>
+      <c r="A144" s="330"/>
       <c r="B144" s="192"/>
       <c r="C144" s="58"/>
       <c r="D144" s="323"/>
       <c r="E144" s="324"/>
       <c r="F144" s="325"/>
-      <c r="G144" s="337"/>
+      <c r="G144" s="338"/>
     </row>
     <row r="145" spans="1:7" ht="15.75">
-      <c r="A145" s="329"/>
+      <c r="A145" s="330"/>
       <c r="B145" s="192"/>
       <c r="C145" s="58"/>
       <c r="D145" s="323"/>
       <c r="E145" s="324"/>
       <c r="F145" s="325"/>
-      <c r="G145" s="337"/>
+      <c r="G145" s="338"/>
     </row>
     <row r="146" spans="1:7" ht="15.75">
-      <c r="A146" s="329"/>
+      <c r="A146" s="330"/>
       <c r="B146" s="192"/>
       <c r="C146" s="58"/>
       <c r="D146" s="323"/>
       <c r="E146" s="324"/>
       <c r="F146" s="325"/>
-      <c r="G146" s="337"/>
+      <c r="G146" s="338"/>
     </row>
     <row r="147" spans="1:7" ht="15.75">
-      <c r="A147" s="329"/>
+      <c r="A147" s="330"/>
       <c r="B147" s="192"/>
       <c r="C147" s="58"/>
       <c r="D147" s="323"/>
       <c r="E147" s="324"/>
       <c r="F147" s="325"/>
-      <c r="G147" s="337"/>
+      <c r="G147" s="338"/>
     </row>
     <row r="148" spans="1:7" ht="15.75">
-      <c r="A148" s="329"/>
+      <c r="A148" s="330"/>
       <c r="B148" s="192"/>
       <c r="C148" s="58"/>
       <c r="D148" s="323"/>
       <c r="E148" s="324"/>
       <c r="F148" s="325"/>
-      <c r="G148" s="337"/>
+      <c r="G148" s="338"/>
     </row>
     <row r="149" spans="1:7" ht="15.75">
-      <c r="A149" s="329"/>
+      <c r="A149" s="330"/>
       <c r="B149" s="192"/>
       <c r="C149" s="58"/>
       <c r="D149" s="323"/>
       <c r="E149" s="324"/>
       <c r="F149" s="325"/>
-      <c r="G149" s="337"/>
+      <c r="G149" s="338"/>
     </row>
     <row r="150" spans="1:7" ht="15.75">
-      <c r="A150" s="329"/>
+      <c r="A150" s="330"/>
       <c r="B150" s="192"/>
       <c r="C150" s="58"/>
       <c r="D150" s="323"/>
       <c r="E150" s="324"/>
       <c r="F150" s="325"/>
-      <c r="G150" s="337"/>
+      <c r="G150" s="338"/>
     </row>
     <row r="151" spans="1:7" ht="15.75">
-      <c r="A151" s="329"/>
+      <c r="A151" s="330"/>
       <c r="B151" s="192"/>
       <c r="C151" s="58"/>
       <c r="D151" s="323"/>
       <c r="E151" s="324"/>
       <c r="F151" s="325"/>
-      <c r="G151" s="337"/>
+      <c r="G151" s="338"/>
     </row>
     <row r="152" spans="1:7" ht="15.75">
-      <c r="A152" s="329"/>
+      <c r="A152" s="330"/>
       <c r="B152" s="192"/>
       <c r="C152" s="58"/>
       <c r="D152" s="323"/>
       <c r="E152" s="324"/>
       <c r="F152" s="325"/>
-      <c r="G152" s="337"/>
+      <c r="G152" s="338"/>
     </row>
     <row r="153" spans="1:7" ht="15.75">
-      <c r="A153" s="329"/>
+      <c r="A153" s="330"/>
       <c r="B153" s="192"/>
       <c r="C153" s="58"/>
       <c r="D153" s="323"/>
       <c r="E153" s="324"/>
       <c r="F153" s="325"/>
-      <c r="G153" s="337"/>
+      <c r="G153" s="338"/>
     </row>
     <row r="154" spans="1:7" ht="15.75">
-      <c r="A154" s="329"/>
+      <c r="A154" s="330"/>
       <c r="B154" s="192"/>
       <c r="C154" s="58"/>
       <c r="D154" s="323"/>
       <c r="E154" s="324"/>
       <c r="F154" s="325"/>
-      <c r="G154" s="337"/>
+      <c r="G154" s="338"/>
     </row>
     <row r="155" spans="1:7" ht="15.75">
-      <c r="A155" s="329"/>
+      <c r="A155" s="330"/>
       <c r="B155" s="192"/>
       <c r="C155" s="58"/>
       <c r="D155" s="323"/>
       <c r="E155" s="324"/>
       <c r="F155" s="325"/>
-      <c r="G155" s="337"/>
+      <c r="G155" s="338"/>
     </row>
     <row r="156" spans="1:7" ht="15.75">
-      <c r="A156" s="329"/>
+      <c r="A156" s="330"/>
       <c r="B156" s="192"/>
       <c r="C156" s="58"/>
       <c r="D156" s="323"/>
       <c r="E156" s="324"/>
       <c r="F156" s="325"/>
-      <c r="G156" s="337"/>
+      <c r="G156" s="338"/>
     </row>
     <row r="157" spans="1:7" ht="15.75">
-      <c r="A157" s="329"/>
+      <c r="A157" s="330"/>
       <c r="B157" s="192"/>
       <c r="C157" s="58"/>
       <c r="D157" s="323"/>
       <c r="E157" s="324"/>
       <c r="F157" s="325"/>
-      <c r="G157" s="337"/>
+      <c r="G157" s="338"/>
     </row>
     <row r="158" spans="1:7" ht="15.75">
-      <c r="A158" s="329"/>
+      <c r="A158" s="330"/>
       <c r="B158" s="192"/>
       <c r="C158" s="58"/>
       <c r="D158" s="323"/>
       <c r="E158" s="324"/>
       <c r="F158" s="325"/>
-      <c r="G158" s="337"/>
+      <c r="G158" s="338"/>
     </row>
     <row r="159" spans="1:7" ht="15.75">
-      <c r="A159" s="329"/>
+      <c r="A159" s="330"/>
       <c r="B159" s="192"/>
       <c r="C159" s="58"/>
       <c r="D159" s="323"/>
       <c r="E159" s="324"/>
       <c r="F159" s="325"/>
-      <c r="G159" s="337"/>
+      <c r="G159" s="338"/>
     </row>
     <row r="160" spans="1:7" ht="15.75">
-      <c r="A160" s="329"/>
+      <c r="A160" s="330"/>
       <c r="B160" s="192"/>
       <c r="C160" s="58"/>
       <c r="D160" s="323"/>
       <c r="E160" s="324"/>
       <c r="F160" s="325"/>
-      <c r="G160" s="337"/>
+      <c r="G160" s="338"/>
     </row>
     <row r="161" spans="1:7" ht="15.75">
-      <c r="A161" s="329"/>
+      <c r="A161" s="330"/>
       <c r="B161" s="192"/>
       <c r="C161" s="58"/>
       <c r="D161" s="323"/>
       <c r="E161" s="324"/>
       <c r="F161" s="325"/>
-      <c r="G161" s="337"/>
+      <c r="G161" s="338"/>
     </row>
     <row r="162" spans="1:7" ht="15.75">
-      <c r="A162" s="329"/>
+      <c r="A162" s="330"/>
       <c r="B162" s="192"/>
       <c r="C162" s="58"/>
       <c r="D162" s="323"/>
       <c r="E162" s="324"/>
       <c r="F162" s="325"/>
-      <c r="G162" s="337"/>
+      <c r="G162" s="338"/>
     </row>
     <row r="163" spans="1:7" ht="15.75">
-      <c r="A163" s="329"/>
+      <c r="A163" s="330"/>
       <c r="B163" s="192"/>
       <c r="C163" s="58"/>
       <c r="D163" s="323"/>
       <c r="E163" s="324"/>
       <c r="F163" s="325"/>
-      <c r="G163" s="337"/>
+      <c r="G163" s="338"/>
     </row>
     <row r="164" spans="1:7" ht="15.75">
-      <c r="A164" s="329"/>
+      <c r="A164" s="330"/>
       <c r="B164" s="192"/>
       <c r="C164" s="58"/>
       <c r="D164" s="323"/>
       <c r="E164" s="324"/>
       <c r="F164" s="325"/>
-      <c r="G164" s="337"/>
+      <c r="G164" s="338"/>
     </row>
     <row r="165" spans="1:7" ht="15.75">
-      <c r="A165" s="329"/>
+      <c r="A165" s="330"/>
       <c r="B165" s="192"/>
       <c r="C165" s="58"/>
       <c r="D165" s="323"/>
       <c r="E165" s="324"/>
       <c r="F165" s="325"/>
-      <c r="G165" s="337"/>
+      <c r="G165" s="338"/>
     </row>
     <row r="166" spans="1:7" ht="15.75">
-      <c r="A166" s="329"/>
+      <c r="A166" s="330"/>
       <c r="B166" s="192"/>
       <c r="C166" s="58"/>
       <c r="D166" s="323"/>
       <c r="E166" s="324"/>
       <c r="F166" s="325"/>
-      <c r="G166" s="337"/>
+      <c r="G166" s="338"/>
     </row>
     <row r="167" spans="1:7" ht="15.75">
-      <c r="A167" s="329"/>
+      <c r="A167" s="330"/>
       <c r="B167" s="192"/>
       <c r="C167" s="58"/>
       <c r="D167" s="323"/>
       <c r="E167" s="324"/>
       <c r="F167" s="325"/>
-      <c r="G167" s="337"/>
+      <c r="G167" s="338"/>
     </row>
     <row r="168" spans="1:7" ht="15.75">
-      <c r="A168" s="329"/>
+      <c r="A168" s="330"/>
       <c r="B168" s="192"/>
       <c r="C168" s="58"/>
       <c r="D168" s="323"/>
       <c r="E168" s="324"/>
       <c r="F168" s="325"/>
-      <c r="G168" s="337"/>
+      <c r="G168" s="338"/>
     </row>
     <row r="169" spans="1:7" ht="15.75">
-      <c r="A169" s="329"/>
+      <c r="A169" s="330"/>
       <c r="B169" s="192"/>
       <c r="C169" s="58"/>
       <c r="D169" s="323"/>
       <c r="E169" s="324"/>
       <c r="F169" s="325"/>
-      <c r="G169" s="337"/>
+      <c r="G169" s="338"/>
     </row>
     <row r="170" spans="1:7" ht="15.75">
-      <c r="A170" s="329"/>
+      <c r="A170" s="330"/>
       <c r="B170" s="192"/>
       <c r="C170" s="58"/>
       <c r="D170" s="323"/>
       <c r="E170" s="324"/>
       <c r="F170" s="325"/>
-      <c r="G170" s="337"/>
+      <c r="G170" s="338"/>
     </row>
     <row r="171" spans="1:7" ht="15.75">
-      <c r="A171" s="329"/>
+      <c r="A171" s="330"/>
       <c r="B171" s="192"/>
       <c r="C171" s="58"/>
       <c r="D171" s="323"/>
       <c r="E171" s="324"/>
       <c r="F171" s="325"/>
-      <c r="G171" s="337"/>
+      <c r="G171" s="338"/>
     </row>
     <row r="172" spans="1:7" ht="15.75">
-      <c r="A172" s="329"/>
+      <c r="A172" s="330"/>
       <c r="B172" s="192"/>
       <c r="C172" s="58"/>
       <c r="D172" s="323"/>
       <c r="E172" s="324"/>
       <c r="F172" s="325"/>
-      <c r="G172" s="337"/>
+      <c r="G172" s="338"/>
     </row>
     <row r="173" spans="1:7" ht="15.75">
-      <c r="A173" s="329"/>
+      <c r="A173" s="330"/>
       <c r="B173" s="192"/>
       <c r="C173" s="58"/>
       <c r="D173" s="323"/>
       <c r="E173" s="324"/>
       <c r="F173" s="325"/>
-      <c r="G173" s="337"/>
+      <c r="G173" s="338"/>
     </row>
     <row r="174" spans="1:7" ht="15.75">
-      <c r="A174" s="329"/>
+      <c r="A174" s="330"/>
       <c r="B174" s="192"/>
       <c r="C174" s="58"/>
       <c r="D174" s="323"/>
       <c r="E174" s="324"/>
       <c r="F174" s="325"/>
-      <c r="G174" s="337"/>
+      <c r="G174" s="338"/>
     </row>
     <row r="175" spans="1:7" ht="15.75">
-      <c r="A175" s="329"/>
+      <c r="A175" s="330"/>
       <c r="B175" s="192"/>
       <c r="C175" s="58"/>
       <c r="D175" s="323"/>
       <c r="E175" s="324"/>
       <c r="F175" s="325"/>
-      <c r="G175" s="337"/>
+      <c r="G175" s="338"/>
     </row>
     <row r="176" spans="1:7" ht="15.75">
-      <c r="A176" s="329"/>
+      <c r="A176" s="330"/>
       <c r="B176" s="192"/>
       <c r="C176" s="58"/>
       <c r="D176" s="323"/>
       <c r="E176" s="324"/>
       <c r="F176" s="325"/>
-      <c r="G176" s="337"/>
+      <c r="G176" s="338"/>
     </row>
     <row r="177" spans="1:7" ht="15.75">
-      <c r="A177" s="329"/>
+      <c r="A177" s="330"/>
       <c r="B177" s="192"/>
       <c r="C177" s="58"/>
       <c r="D177" s="323"/>
       <c r="E177" s="324"/>
       <c r="F177" s="325"/>
-      <c r="G177" s="337"/>
+      <c r="G177" s="338"/>
     </row>
     <row r="178" spans="1:7" ht="15.75">
-      <c r="A178" s="329"/>
+      <c r="A178" s="330"/>
       <c r="B178" s="192"/>
       <c r="C178" s="58"/>
       <c r="D178" s="323"/>
       <c r="E178" s="324"/>
       <c r="F178" s="325"/>
-      <c r="G178" s="337"/>
+      <c r="G178" s="338"/>
     </row>
     <row r="179" spans="1:7" ht="15.75">
-      <c r="A179" s="329"/>
+      <c r="A179" s="330"/>
       <c r="B179" s="192"/>
       <c r="C179" s="58"/>
       <c r="D179" s="323"/>
       <c r="E179" s="324"/>
       <c r="F179" s="325"/>
-      <c r="G179" s="337"/>
+      <c r="G179" s="338"/>
     </row>
     <row r="180" spans="1:7" ht="15.75">
-      <c r="A180" s="329"/>
+      <c r="A180" s="330"/>
       <c r="B180" s="192"/>
       <c r="C180" s="58"/>
       <c r="D180" s="323"/>
       <c r="E180" s="324"/>
       <c r="F180" s="325"/>
-      <c r="G180" s="337"/>
+      <c r="G180" s="338"/>
     </row>
     <row r="181" spans="1:7" ht="15.75">
-      <c r="A181" s="329"/>
+      <c r="A181" s="330"/>
       <c r="B181" s="192"/>
       <c r="C181" s="58"/>
       <c r="D181" s="323"/>
       <c r="E181" s="324"/>
       <c r="F181" s="325"/>
-      <c r="G181" s="337"/>
+      <c r="G181" s="338"/>
     </row>
     <row r="182" spans="1:7" ht="15.75">
-      <c r="A182" s="329"/>
+      <c r="A182" s="330"/>
       <c r="B182" s="192"/>
       <c r="C182" s="58"/>
       <c r="D182" s="323"/>
       <c r="E182" s="324"/>
       <c r="F182" s="325"/>
-      <c r="G182" s="337"/>
+      <c r="G182" s="338"/>
     </row>
     <row r="183" spans="1:7" ht="15.75">
-      <c r="A183" s="329"/>
+      <c r="A183" s="330"/>
       <c r="B183" s="192"/>
       <c r="C183" s="58"/>
       <c r="D183" s="323"/>
       <c r="E183" s="324"/>
       <c r="F183" s="325"/>
-      <c r="G183" s="337"/>
+      <c r="G183" s="338"/>
     </row>
     <row r="184" spans="1:7" ht="15.75">
-      <c r="A184" s="329"/>
+      <c r="A184" s="330"/>
       <c r="B184" s="192"/>
       <c r="C184" s="58"/>
       <c r="D184" s="323"/>
       <c r="E184" s="324"/>
       <c r="F184" s="325"/>
-      <c r="G184" s="337"/>
+      <c r="G184" s="338"/>
     </row>
     <row r="185" spans="1:7" ht="15.75">
-      <c r="A185" s="329"/>
+      <c r="A185" s="330"/>
       <c r="B185" s="192"/>
       <c r="C185" s="58"/>
       <c r="D185" s="323"/>
       <c r="E185" s="324"/>
       <c r="F185" s="325"/>
-      <c r="G185" s="337"/>
+      <c r="G185" s="338"/>
     </row>
     <row r="186" spans="1:7" ht="15.75">
-      <c r="A186" s="329"/>
+      <c r="A186" s="330"/>
       <c r="B186" s="192"/>
       <c r="C186" s="58"/>
       <c r="D186" s="323"/>
       <c r="E186" s="324"/>
       <c r="F186" s="325"/>
-      <c r="G186" s="337"/>
+      <c r="G186" s="338"/>
     </row>
     <row r="187" spans="1:7" ht="15.75">
-      <c r="A187" s="329"/>
+      <c r="A187" s="330"/>
       <c r="B187" s="192"/>
       <c r="C187" s="58"/>
       <c r="D187" s="323"/>
       <c r="E187" s="324"/>
       <c r="F187" s="325"/>
-      <c r="G187" s="337"/>
+      <c r="G187" s="338"/>
     </row>
     <row r="188" spans="1:7" ht="15.75">
-      <c r="A188" s="329"/>
+      <c r="A188" s="330"/>
       <c r="B188" s="192"/>
       <c r="C188" s="58"/>
       <c r="D188" s="323"/>
       <c r="E188" s="324"/>
       <c r="F188" s="325"/>
-      <c r="G188" s="337"/>
+      <c r="G188" s="338"/>
     </row>
     <row r="189" spans="1:7" ht="15.75">
-      <c r="A189" s="329"/>
+      <c r="A189" s="330"/>
       <c r="B189" s="192"/>
       <c r="C189" s="58"/>
       <c r="D189" s="323"/>
       <c r="E189" s="324"/>
       <c r="F189" s="325"/>
-      <c r="G189" s="337"/>
+      <c r="G189" s="338"/>
     </row>
     <row r="190" spans="1:7" ht="15.75">
-      <c r="A190" s="329"/>
+      <c r="A190" s="330"/>
       <c r="B190" s="192"/>
       <c r="C190" s="58"/>
       <c r="D190" s="323"/>
       <c r="E190" s="324"/>
       <c r="F190" s="325"/>
-      <c r="G190" s="337"/>
+      <c r="G190" s="338"/>
     </row>
     <row r="191" spans="1:7" ht="15.75">
-      <c r="A191" s="329"/>
+      <c r="A191" s="330"/>
       <c r="B191" s="192"/>
       <c r="C191" s="58"/>
       <c r="D191" s="323"/>
       <c r="E191" s="324"/>
       <c r="F191" s="325"/>
-      <c r="G191" s="337"/>
+      <c r="G191" s="338"/>
     </row>
     <row r="192" spans="1:7" ht="15.75">
-      <c r="A192" s="329"/>
+      <c r="A192" s="330"/>
       <c r="B192" s="192"/>
       <c r="C192" s="58"/>
       <c r="D192" s="323"/>
       <c r="E192" s="324"/>
       <c r="F192" s="325"/>
-      <c r="G192" s="337"/>
+      <c r="G192" s="338"/>
     </row>
     <row r="193" spans="1:7" ht="15.75">
-      <c r="A193" s="329"/>
+      <c r="A193" s="330"/>
       <c r="B193" s="192"/>
       <c r="C193" s="58"/>
       <c r="D193" s="323"/>
       <c r="E193" s="324"/>
       <c r="F193" s="325"/>
-      <c r="G193" s="337"/>
+      <c r="G193" s="338"/>
     </row>
     <row r="194" spans="1:7" ht="15.75">
-      <c r="A194" s="329"/>
+      <c r="A194" s="330"/>
       <c r="B194" s="192"/>
       <c r="C194" s="58"/>
       <c r="D194" s="323"/>
       <c r="E194" s="324"/>
       <c r="F194" s="325"/>
-      <c r="G194" s="337"/>
+      <c r="G194" s="338"/>
     </row>
     <row r="195" spans="1:7" ht="15.75">
-      <c r="A195" s="329"/>
+      <c r="A195" s="330"/>
       <c r="B195" s="192"/>
       <c r="C195" s="58"/>
       <c r="D195" s="323"/>
       <c r="E195" s="324"/>
       <c r="F195" s="325"/>
-      <c r="G195" s="337"/>
+      <c r="G195" s="338"/>
     </row>
     <row r="196" spans="1:7" ht="15.75">
-      <c r="A196" s="329"/>
+      <c r="A196" s="330"/>
       <c r="B196" s="192"/>
       <c r="C196" s="58"/>
       <c r="D196" s="323"/>
       <c r="E196" s="324"/>
       <c r="F196" s="325"/>
-      <c r="G196" s="337"/>
+      <c r="G196" s="338"/>
     </row>
     <row r="197" spans="1:7" ht="15.75">
-      <c r="A197" s="329"/>
+      <c r="A197" s="330"/>
       <c r="B197" s="192"/>
       <c r="C197" s="58"/>
       <c r="D197" s="323"/>
       <c r="E197" s="324"/>
       <c r="F197" s="325"/>
-      <c r="G197" s="337"/>
+      <c r="G197" s="338"/>
     </row>
     <row r="198" spans="1:7" ht="15.75">
-      <c r="A198" s="329"/>
+      <c r="A198" s="330"/>
       <c r="B198" s="192"/>
       <c r="C198" s="58"/>
       <c r="D198" s="323"/>
       <c r="E198" s="324"/>
       <c r="F198" s="325"/>
-      <c r="G198" s="337"/>
+      <c r="G198" s="338"/>
     </row>
     <row r="199" spans="1:7" ht="15.75">
-      <c r="A199" s="329"/>
+      <c r="A199" s="330"/>
       <c r="B199" s="192"/>
       <c r="C199" s="58"/>
       <c r="D199" s="323"/>
       <c r="E199" s="324"/>
       <c r="F199" s="325"/>
-      <c r="G199" s="337"/>
+      <c r="G199" s="338"/>
     </row>
     <row r="200" spans="1:7" ht="15.75">
-      <c r="A200" s="329"/>
+      <c r="A200" s="330"/>
       <c r="B200" s="192"/>
       <c r="C200" s="58"/>
       <c r="D200" s="323"/>
       <c r="E200" s="324"/>
       <c r="F200" s="325"/>
-      <c r="G200" s="337"/>
+      <c r="G200" s="338"/>
     </row>
     <row r="201" spans="1:7" ht="15.75">
-      <c r="A201" s="329"/>
+      <c r="A201" s="330"/>
       <c r="B201" s="192"/>
       <c r="C201" s="58"/>
       <c r="D201" s="323"/>
       <c r="E201" s="324"/>
       <c r="F201" s="325"/>
-      <c r="G201" s="337"/>
+      <c r="G201" s="338"/>
     </row>
     <row r="202" spans="1:7" ht="15.75">
-      <c r="A202" s="329"/>
+      <c r="A202" s="330"/>
       <c r="B202" s="192"/>
       <c r="C202" s="58"/>
       <c r="D202" s="323"/>
       <c r="E202" s="324"/>
       <c r="F202" s="325"/>
-      <c r="G202" s="337"/>
+      <c r="G202" s="338"/>
     </row>
     <row r="203" spans="1:7" ht="15.75">
-      <c r="A203" s="329"/>
+      <c r="A203" s="330"/>
       <c r="B203" s="192"/>
       <c r="C203" s="58"/>
       <c r="D203" s="323"/>
       <c r="E203" s="324"/>
       <c r="F203" s="325"/>
-      <c r="G203" s="337"/>
+      <c r="G203" s="338"/>
     </row>
     <row r="204" spans="1:7" ht="15.75">
-      <c r="A204" s="329"/>
+      <c r="A204" s="330"/>
       <c r="B204" s="192"/>
       <c r="C204" s="58"/>
       <c r="D204" s="323"/>
       <c r="E204" s="324"/>
       <c r="F204" s="325"/>
-      <c r="G204" s="337"/>
+      <c r="G204" s="338"/>
     </row>
     <row r="205" spans="1:7" ht="15.75">
-      <c r="A205" s="329"/>
+      <c r="A205" s="330"/>
       <c r="B205" s="192"/>
       <c r="C205" s="58"/>
       <c r="D205" s="323"/>
       <c r="E205" s="324"/>
       <c r="F205" s="325"/>
-      <c r="G205" s="337"/>
+      <c r="G205" s="338"/>
     </row>
     <row r="206" spans="1:7" ht="15.75">
-      <c r="A206" s="329"/>
+      <c r="A206" s="330"/>
       <c r="B206" s="192"/>
       <c r="C206" s="58"/>
       <c r="D206" s="323"/>
       <c r="E206" s="324"/>
       <c r="F206" s="325"/>
-      <c r="G206" s="337"/>
+      <c r="G206" s="338"/>
     </row>
     <row r="207" spans="1:7" ht="15.75">
-      <c r="A207" s="329"/>
+      <c r="A207" s="330"/>
       <c r="B207" s="192"/>
       <c r="C207" s="58"/>
       <c r="D207" s="323"/>
       <c r="E207" s="324"/>
       <c r="F207" s="325"/>
-      <c r="G207" s="337"/>
+      <c r="G207" s="338"/>
     </row>
     <row r="208" spans="1:7" ht="15.75">
-      <c r="A208" s="329"/>
+      <c r="A208" s="330"/>
       <c r="B208" s="192"/>
       <c r="C208" s="58"/>
       <c r="D208" s="323"/>
       <c r="E208" s="324"/>
       <c r="F208" s="325"/>
-      <c r="G208" s="337"/>
+      <c r="G208" s="338"/>
     </row>
     <row r="209" spans="1:7" ht="15.75">
-      <c r="A209" s="329"/>
+      <c r="A209" s="330"/>
       <c r="B209" s="192"/>
       <c r="C209" s="58"/>
       <c r="D209" s="323"/>
       <c r="E209" s="324"/>
       <c r="F209" s="325"/>
-      <c r="G209" s="337"/>
+      <c r="G209" s="338"/>
     </row>
     <row r="210" spans="1:7" ht="15.75">
-      <c r="A210" s="329"/>
+      <c r="A210" s="330"/>
       <c r="B210" s="192"/>
       <c r="C210" s="58"/>
       <c r="D210" s="323"/>
       <c r="E210" s="324"/>
       <c r="F210" s="325"/>
-      <c r="G210" s="337"/>
+      <c r="G210" s="338"/>
     </row>
     <row r="211" spans="1:7" ht="15.75">
-      <c r="A211" s="329"/>
+      <c r="A211" s="330"/>
       <c r="B211" s="192"/>
       <c r="C211" s="58"/>
       <c r="D211" s="323"/>
       <c r="E211" s="324"/>
       <c r="F211" s="325"/>
-      <c r="G211" s="337"/>
+      <c r="G211" s="338"/>
     </row>
     <row r="212" spans="1:7" ht="15.75">
-      <c r="A212" s="329"/>
+      <c r="A212" s="330"/>
       <c r="B212" s="192"/>
       <c r="C212" s="58"/>
       <c r="D212" s="323"/>
       <c r="E212" s="324"/>
       <c r="F212" s="325"/>
-      <c r="G212" s="337"/>
+      <c r="G212" s="338"/>
     </row>
     <row r="213" spans="1:7" ht="15.75">
-      <c r="A213" s="329"/>
+      <c r="A213" s="330"/>
       <c r="B213" s="192"/>
       <c r="C213" s="58"/>
       <c r="D213" s="323"/>
       <c r="E213" s="324"/>
       <c r="F213" s="325"/>
-      <c r="G213" s="337"/>
+      <c r="G213" s="338"/>
     </row>
     <row r="214" spans="1:7" ht="15.75">
-      <c r="A214" s="329"/>
+      <c r="A214" s="330"/>
       <c r="B214" s="192"/>
       <c r="C214" s="58"/>
       <c r="D214" s="323"/>
       <c r="E214" s="324"/>
       <c r="F214" s="325"/>
-      <c r="G214" s="337"/>
+      <c r="G214" s="338"/>
     </row>
     <row r="215" spans="1:7" ht="15.75">
-      <c r="A215" s="329"/>
+      <c r="A215" s="330"/>
       <c r="B215" s="192"/>
       <c r="C215" s="58"/>
       <c r="D215" s="323"/>
       <c r="E215" s="324"/>
       <c r="F215" s="325"/>
-      <c r="G215" s="337"/>
+      <c r="G215" s="338"/>
     </row>
     <row r="216" spans="1:7" ht="15.75">
-      <c r="A216" s="329"/>
+      <c r="A216" s="330"/>
       <c r="B216" s="192"/>
       <c r="C216" s="58"/>
       <c r="D216" s="323"/>
       <c r="E216" s="324"/>
       <c r="F216" s="325"/>
-      <c r="G216" s="337"/>
+      <c r="G216" s="338"/>
     </row>
     <row r="217" spans="1:7" ht="15.75">
-      <c r="A217" s="329"/>
+      <c r="A217" s="330"/>
       <c r="B217" s="192"/>
       <c r="C217" s="58"/>
       <c r="D217" s="323"/>
       <c r="E217" s="324"/>
       <c r="F217" s="325"/>
-      <c r="G217" s="337"/>
+      <c r="G217" s="338"/>
     </row>
     <row r="218" spans="1:7" ht="15.75">
-      <c r="A218" s="329"/>
+      <c r="A218" s="330"/>
       <c r="B218" s="192"/>
       <c r="C218" s="58"/>
       <c r="D218" s="323"/>
       <c r="E218" s="324"/>
       <c r="F218" s="325"/>
-      <c r="G218" s="337"/>
+      <c r="G218" s="338"/>
     </row>
     <row r="219" spans="1:7" ht="15.75">
-      <c r="A219" s="329"/>
+      <c r="A219" s="330"/>
       <c r="B219" s="192"/>
       <c r="C219" s="58"/>
       <c r="D219" s="323"/>
       <c r="E219" s="324"/>
       <c r="F219" s="325"/>
-      <c r="G219" s="337"/>
+      <c r="G219" s="338"/>
     </row>
     <row r="220" spans="1:7" ht="15.75">
-      <c r="A220" s="329"/>
+      <c r="A220" s="330"/>
       <c r="B220" s="192"/>
       <c r="C220" s="58"/>
       <c r="D220" s="323"/>
       <c r="E220" s="324"/>
       <c r="F220" s="325"/>
-      <c r="G220" s="337"/>
+      <c r="G220" s="338"/>
     </row>
     <row r="221" spans="1:7" ht="15.75">
-      <c r="A221" s="329"/>
+      <c r="A221" s="330"/>
       <c r="B221" s="192"/>
       <c r="C221" s="58"/>
       <c r="D221" s="323"/>
       <c r="E221" s="324"/>
       <c r="F221" s="325"/>
-      <c r="G221" s="337"/>
+      <c r="G221" s="338"/>
     </row>
     <row r="222" spans="1:7" ht="15.75">
-      <c r="A222" s="329"/>
+      <c r="A222" s="330"/>
       <c r="B222" s="192"/>
       <c r="C222" s="58"/>
       <c r="D222" s="323"/>
       <c r="E222" s="324"/>
       <c r="F222" s="325"/>
-      <c r="G222" s="337"/>
+      <c r="G222" s="338"/>
     </row>
     <row r="223" spans="1:7" ht="15.75">
-      <c r="A223" s="329"/>
+      <c r="A223" s="330"/>
       <c r="B223" s="192"/>
       <c r="C223" s="58"/>
       <c r="D223" s="323"/>
       <c r="E223" s="324"/>
       <c r="F223" s="325"/>
-      <c r="G223" s="337"/>
+      <c r="G223" s="338"/>
     </row>
     <row r="224" spans="1:7" ht="15.75">
-      <c r="A224" s="329"/>
+      <c r="A224" s="330"/>
       <c r="B224" s="192"/>
       <c r="C224" s="58"/>
       <c r="D224" s="323"/>
       <c r="E224" s="324"/>
       <c r="F224" s="325"/>
-      <c r="G224" s="337"/>
+      <c r="G224" s="338"/>
     </row>
     <row r="225" spans="1:7" ht="15.75">
-      <c r="A225" s="329"/>
+      <c r="A225" s="330"/>
       <c r="B225" s="192"/>
       <c r="C225" s="58"/>
       <c r="D225" s="323"/>
       <c r="E225" s="324"/>
       <c r="F225" s="325"/>
-      <c r="G225" s="337"/>
+      <c r="G225" s="338"/>
     </row>
     <row r="226" spans="1:7" ht="15.75">
-      <c r="A226" s="329"/>
+      <c r="A226" s="330"/>
       <c r="B226" s="192"/>
       <c r="C226" s="58"/>
       <c r="D226" s="323"/>
       <c r="E226" s="324"/>
       <c r="F226" s="325"/>
-      <c r="G226" s="337"/>
+      <c r="G226" s="338"/>
     </row>
     <row r="227" spans="1:7" ht="15.75">
-      <c r="A227" s="329"/>
+      <c r="A227" s="330"/>
       <c r="B227" s="192"/>
       <c r="C227" s="58"/>
       <c r="D227" s="323"/>
       <c r="E227" s="324"/>
       <c r="F227" s="325"/>
-      <c r="G227" s="337"/>
+      <c r="G227" s="338"/>
     </row>
     <row r="228" spans="1:7" ht="15.75">
-      <c r="A228" s="329"/>
+      <c r="A228" s="330"/>
       <c r="B228" s="192"/>
       <c r="C228" s="58"/>
       <c r="D228" s="323"/>
       <c r="E228" s="324"/>
       <c r="F228" s="325"/>
-      <c r="G228" s="337"/>
+      <c r="G228" s="338"/>
     </row>
     <row r="229" spans="1:7" ht="15.75">
-      <c r="A229" s="329"/>
+      <c r="A229" s="330"/>
       <c r="B229" s="192"/>
       <c r="C229" s="58"/>
       <c r="D229" s="323"/>
       <c r="E229" s="324"/>
       <c r="F229" s="325"/>
-      <c r="G229" s="337"/>
+      <c r="G229" s="338"/>
     </row>
     <row r="230" spans="1:7" ht="15.75">
-      <c r="A230" s="329"/>
+      <c r="A230" s="330"/>
       <c r="B230" s="192"/>
       <c r="C230" s="58"/>
       <c r="D230" s="323"/>
       <c r="E230" s="324"/>
       <c r="F230" s="325"/>
-      <c r="G230" s="337"/>
+      <c r="G230" s="338"/>
     </row>
     <row r="231" spans="1:7" ht="15.75">
-      <c r="A231" s="329"/>
+      <c r="A231" s="330"/>
       <c r="B231" s="192"/>
       <c r="C231" s="58"/>
       <c r="D231" s="323"/>
       <c r="E231" s="324"/>
       <c r="F231" s="325"/>
-      <c r="G231" s="337"/>
+      <c r="G231" s="338"/>
     </row>
     <row r="232" spans="1:7" ht="15.75">
-      <c r="A232" s="329"/>
+      <c r="A232" s="330"/>
       <c r="B232" s="192"/>
       <c r="C232" s="58"/>
       <c r="D232" s="323"/>
       <c r="E232" s="324"/>
       <c r="F232" s="325"/>
-      <c r="G232" s="337"/>
+      <c r="G232" s="338"/>
     </row>
     <row r="233" spans="1:7" ht="15.75">
-      <c r="A233" s="329"/>
+      <c r="A233" s="330"/>
       <c r="B233" s="192"/>
       <c r="C233" s="58"/>
       <c r="D233" s="323"/>
       <c r="E233" s="324"/>
       <c r="F233" s="325"/>
-      <c r="G233" s="337"/>
+      <c r="G233" s="338"/>
     </row>
     <row r="234" spans="1:7" ht="15.75">
-      <c r="A234" s="329"/>
+      <c r="A234" s="330"/>
       <c r="B234" s="192"/>
       <c r="C234" s="58"/>
       <c r="D234" s="323"/>
       <c r="E234" s="324"/>
       <c r="F234" s="325"/>
-      <c r="G234" s="337"/>
+      <c r="G234" s="338"/>
     </row>
     <row r="235" spans="1:7" ht="15.75">
-      <c r="A235" s="329"/>
+      <c r="A235" s="330"/>
       <c r="B235" s="192"/>
       <c r="C235" s="58"/>
       <c r="D235" s="323"/>
       <c r="E235" s="324"/>
       <c r="F235" s="325"/>
-      <c r="G235" s="337"/>
+      <c r="G235" s="338"/>
     </row>
     <row r="236" spans="1:7" ht="15.75">
-      <c r="A236" s="329"/>
+      <c r="A236" s="330"/>
       <c r="B236" s="192"/>
       <c r="C236" s="58"/>
       <c r="D236" s="323"/>
       <c r="E236" s="324"/>
       <c r="F236" s="325"/>
-      <c r="G236" s="337"/>
+      <c r="G236" s="338"/>
     </row>
     <row r="237" spans="1:7" ht="15.75">
-      <c r="A237" s="329"/>
+      <c r="A237" s="330"/>
       <c r="B237" s="192"/>
       <c r="C237" s="58"/>
       <c r="D237" s="323"/>
       <c r="E237" s="324"/>
       <c r="F237" s="325"/>
-      <c r="G237" s="337"/>
+      <c r="G237" s="338"/>
     </row>
     <row r="238" spans="1:7" ht="15.75">
-      <c r="A238" s="329"/>
+      <c r="A238" s="330"/>
       <c r="B238" s="192"/>
       <c r="C238" s="58"/>
       <c r="D238" s="323"/>
       <c r="E238" s="324"/>
       <c r="F238" s="325"/>
-      <c r="G238" s="337"/>
+      <c r="G238" s="338"/>
     </row>
     <row r="239" spans="1:7" ht="15.75">
-      <c r="A239" s="329"/>
+      <c r="A239" s="330"/>
       <c r="B239" s="192"/>
       <c r="C239" s="58"/>
       <c r="D239" s="323"/>
       <c r="E239" s="324"/>
       <c r="F239" s="325"/>
-      <c r="G239" s="337"/>
+      <c r="G239" s="338"/>
     </row>
     <row r="240" spans="1:7" ht="15.75">
-      <c r="A240" s="329"/>
+      <c r="A240" s="330"/>
       <c r="B240" s="192"/>
       <c r="C240" s="58"/>
       <c r="D240" s="323"/>
       <c r="E240" s="324"/>
       <c r="F240" s="325"/>
-      <c r="G240" s="337"/>
+      <c r="G240" s="338"/>
     </row>
     <row r="241" spans="1:7" ht="15.75">
-      <c r="A241" s="329"/>
+      <c r="A241" s="330"/>
       <c r="B241" s="192"/>
       <c r="C241" s="58"/>
       <c r="D241" s="323"/>
       <c r="E241" s="324"/>
       <c r="F241" s="325"/>
-      <c r="G241" s="337"/>
+      <c r="G241" s="338"/>
     </row>
     <row r="242" spans="1:7" ht="15.75">
-      <c r="A242" s="329"/>
+      <c r="A242" s="330"/>
       <c r="B242" s="192"/>
       <c r="C242" s="58"/>
       <c r="D242" s="323"/>
       <c r="E242" s="324"/>
       <c r="F242" s="325"/>
-      <c r="G242" s="337"/>
+      <c r="G242" s="338"/>
     </row>
     <row r="243" spans="1:7" ht="15.75">
-      <c r="A243" s="329"/>
+      <c r="A243" s="330"/>
       <c r="B243" s="192"/>
       <c r="C243" s="58"/>
       <c r="D243" s="323"/>
       <c r="E243" s="324"/>
       <c r="F243" s="325"/>
-      <c r="G243" s="337"/>
+      <c r="G243" s="338"/>
     </row>
     <row r="244" spans="1:7" ht="15.75">
-      <c r="A244" s="329"/>
+      <c r="A244" s="330"/>
       <c r="B244" s="192"/>
       <c r="C244" s="58"/>
       <c r="D244" s="323"/>
       <c r="E244" s="324"/>
       <c r="F244" s="325"/>
-      <c r="G244" s="337"/>
+      <c r="G244" s="338"/>
     </row>
     <row r="245" spans="1:7" ht="15.75">
-      <c r="A245" s="329"/>
+      <c r="A245" s="330"/>
       <c r="B245" s="192"/>
       <c r="C245" s="58"/>
       <c r="D245" s="323"/>
       <c r="E245" s="324"/>
       <c r="F245" s="325"/>
-      <c r="G245" s="337"/>
+      <c r="G245" s="338"/>
     </row>
     <row r="246" spans="1:7" ht="15.75">
-      <c r="A246" s="329"/>
+      <c r="A246" s="330"/>
       <c r="B246" s="192"/>
       <c r="C246" s="58"/>
       <c r="D246" s="323"/>
       <c r="E246" s="324"/>
       <c r="F246" s="325"/>
-      <c r="G246" s="337"/>
+      <c r="G246" s="338"/>
     </row>
     <row r="247" spans="1:7" ht="15.75">
-      <c r="A247" s="329"/>
+      <c r="A247" s="330"/>
       <c r="B247" s="192"/>
       <c r="C247" s="58"/>
       <c r="D247" s="323"/>
       <c r="E247" s="324"/>
       <c r="F247" s="325"/>
-      <c r="G247" s="337"/>
+      <c r="G247" s="338"/>
     </row>
     <row r="248" spans="1:7" ht="15.75">
-      <c r="A248" s="329"/>
+      <c r="A248" s="330"/>
       <c r="B248" s="192"/>
       <c r="C248" s="58"/>
       <c r="D248" s="323"/>
       <c r="E248" s="324"/>
       <c r="F248" s="325"/>
-      <c r="G248" s="337"/>
+      <c r="G248" s="338"/>
     </row>
     <row r="249" spans="1:7" ht="15.75">
-      <c r="A249" s="329"/>
+      <c r="A249" s="330"/>
       <c r="B249" s="192"/>
       <c r="C249" s="58"/>
       <c r="D249" s="323"/>
       <c r="E249" s="324"/>
       <c r="F249" s="325"/>
-      <c r="G249" s="337"/>
+      <c r="G249" s="338"/>
     </row>
     <row r="250" spans="1:7" ht="15.75">
-      <c r="A250" s="329"/>
+      <c r="A250" s="330"/>
       <c r="B250" s="192"/>
       <c r="C250" s="58"/>
       <c r="D250" s="323"/>
       <c r="E250" s="324"/>
       <c r="F250" s="325"/>
-      <c r="G250" s="337"/>
+      <c r="G250" s="338"/>
     </row>
     <row r="251" spans="1:7" ht="15.75">
-      <c r="A251" s="329"/>
+      <c r="A251" s="330"/>
       <c r="B251" s="192"/>
       <c r="C251" s="58"/>
       <c r="D251" s="323"/>
       <c r="E251" s="324"/>
       <c r="F251" s="325"/>
-      <c r="G251" s="337"/>
+      <c r="G251" s="338"/>
     </row>
     <row r="252" spans="1:7" ht="15.75">
-      <c r="A252" s="329"/>
+      <c r="A252" s="330"/>
       <c r="B252" s="192"/>
       <c r="C252" s="58"/>
       <c r="D252" s="323"/>
       <c r="E252" s="324"/>
       <c r="F252" s="325"/>
-      <c r="G252" s="337"/>
+      <c r="G252" s="338"/>
     </row>
     <row r="253" spans="1:7" ht="15.75">
-      <c r="A253" s="329"/>
+      <c r="A253" s="330"/>
       <c r="B253" s="192"/>
       <c r="C253" s="58"/>
       <c r="D253" s="323"/>
       <c r="E253" s="324"/>
       <c r="F253" s="325"/>
-      <c r="G253" s="337"/>
+      <c r="G253" s="338"/>
     </row>
     <row r="254" spans="1:7" ht="15.75">
-      <c r="A254" s="329"/>
+      <c r="A254" s="330"/>
       <c r="B254" s="192"/>
       <c r="C254" s="58"/>
       <c r="D254" s="323"/>
       <c r="E254" s="324"/>
       <c r="F254" s="325"/>
-      <c r="G254" s="337"/>
+      <c r="G254" s="338"/>
     </row>
     <row r="255" spans="1:7" ht="15.75">
-      <c r="A255" s="329"/>
+      <c r="A255" s="330"/>
       <c r="B255" s="192"/>
       <c r="C255" s="58"/>
       <c r="D255" s="323"/>
       <c r="E255" s="324"/>
       <c r="F255" s="325"/>
-      <c r="G255" s="337"/>
+      <c r="G255" s="338"/>
     </row>
     <row r="256" spans="1:7" ht="15.75">
-      <c r="A256" s="329"/>
+      <c r="A256" s="330"/>
       <c r="B256" s="192"/>
       <c r="C256" s="58"/>
       <c r="D256" s="323"/>
       <c r="E256" s="324"/>
       <c r="F256" s="325"/>
-      <c r="G256" s="337"/>
+      <c r="G256" s="338"/>
     </row>
     <row r="257" spans="1:7" ht="15.75">
-      <c r="A257" s="329"/>
+      <c r="A257" s="330"/>
       <c r="B257" s="192"/>
       <c r="C257" s="58"/>
       <c r="D257" s="323"/>
       <c r="E257" s="324"/>
       <c r="F257" s="325"/>
-      <c r="G257" s="337"/>
+      <c r="G257" s="338"/>
     </row>
     <row r="258" spans="1:7" ht="15.75">
-      <c r="A258" s="329"/>
+      <c r="A258" s="330"/>
       <c r="B258" s="192"/>
       <c r="C258" s="58"/>
       <c r="D258" s="323"/>
       <c r="E258" s="324"/>
       <c r="F258" s="325"/>
-      <c r="G258" s="337"/>
+      <c r="G258" s="338"/>
     </row>
     <row r="259" spans="1:7" ht="15.75">
-      <c r="A259" s="329"/>
+      <c r="A259" s="330"/>
       <c r="B259" s="192"/>
       <c r="C259" s="58"/>
       <c r="D259" s="323"/>
       <c r="E259" s="324"/>
       <c r="F259" s="325"/>
-      <c r="G259" s="337"/>
+      <c r="G259" s="338"/>
     </row>
     <row r="260" spans="1:7" ht="15.75">
-      <c r="A260" s="329"/>
+      <c r="A260" s="330"/>
       <c r="B260" s="192"/>
       <c r="C260" s="58"/>
       <c r="D260" s="323"/>
       <c r="E260" s="324"/>
       <c r="F260" s="325"/>
-      <c r="G260" s="337"/>
+      <c r="G260" s="338"/>
     </row>
     <row r="261" spans="1:7" ht="15.75">
-      <c r="A261" s="329"/>
+      <c r="A261" s="330"/>
       <c r="B261" s="192"/>
       <c r="C261" s="58"/>
       <c r="D261" s="323"/>
       <c r="E261" s="324"/>
       <c r="F261" s="325"/>
-      <c r="G261" s="337"/>
+      <c r="G261" s="338"/>
     </row>
     <row r="262" spans="1:7" ht="15.75">
-      <c r="A262" s="329"/>
+      <c r="A262" s="330"/>
       <c r="B262" s="192"/>
       <c r="C262" s="58"/>
       <c r="D262" s="323"/>
       <c r="E262" s="324"/>
       <c r="F262" s="325"/>
-      <c r="G262" s="337"/>
+      <c r="G262" s="338"/>
     </row>
     <row r="263" spans="1:7" ht="15.75">
-      <c r="A263" s="329"/>
+      <c r="A263" s="330"/>
       <c r="B263" s="192"/>
       <c r="C263" s="58"/>
       <c r="D263" s="323"/>
       <c r="E263" s="324"/>
       <c r="F263" s="325"/>
-      <c r="G263" s="337"/>
+      <c r="G263" s="338"/>
     </row>
     <row r="264" spans="1:7" ht="15.75">
-      <c r="A264" s="329"/>
+      <c r="A264" s="330"/>
       <c r="B264" s="192"/>
       <c r="C264" s="58"/>
       <c r="D264" s="323"/>
       <c r="E264" s="324"/>
       <c r="F264" s="325"/>
-      <c r="G264" s="337"/>
+      <c r="G264" s="338"/>
     </row>
     <row r="265" spans="1:7" ht="15.75">
-      <c r="A265" s="329"/>
+      <c r="A265" s="330"/>
       <c r="B265" s="192"/>
       <c r="C265" s="58"/>
       <c r="D265" s="323"/>
       <c r="E265" s="324"/>
       <c r="F265" s="325"/>
-      <c r="G265" s="337"/>
+      <c r="G265" s="338"/>
     </row>
     <row r="266" spans="1:7" ht="15.75">
-      <c r="A266" s="329"/>
+      <c r="A266" s="330"/>
       <c r="B266" s="192"/>
       <c r="C266" s="58"/>
       <c r="D266" s="323"/>
       <c r="E266" s="324"/>
       <c r="F266" s="325"/>
-      <c r="G266" s="337"/>
+      <c r="G266" s="338"/>
     </row>
     <row r="267" spans="1:7" ht="15.75">
-      <c r="A267" s="329"/>
+      <c r="A267" s="330"/>
       <c r="B267" s="192"/>
       <c r="C267" s="58"/>
       <c r="D267" s="323"/>
       <c r="E267" s="324"/>
       <c r="F267" s="325"/>
-      <c r="G267" s="337"/>
+      <c r="G267" s="338"/>
     </row>
     <row r="268" spans="1:7" ht="15.75">
-      <c r="A268" s="329"/>
+      <c r="A268" s="330"/>
       <c r="B268" s="192"/>
       <c r="C268" s="58"/>
       <c r="D268" s="323"/>
       <c r="E268" s="324"/>
       <c r="F268" s="325"/>
-      <c r="G268" s="337"/>
+      <c r="G268" s="338"/>
     </row>
     <row r="269" spans="1:7" ht="15.75">
-      <c r="A269" s="329"/>
+      <c r="A269" s="330"/>
       <c r="B269" s="192"/>
       <c r="C269" s="58"/>
       <c r="D269" s="323"/>
       <c r="E269" s="324"/>
       <c r="F269" s="325"/>
-      <c r="G269" s="337"/>
+      <c r="G269" s="338"/>
     </row>
     <row r="270" spans="1:7" ht="15.75">
-      <c r="A270" s="329"/>
+      <c r="A270" s="330"/>
       <c r="B270" s="192"/>
       <c r="C270" s="58"/>
       <c r="D270" s="323"/>
       <c r="E270" s="324"/>
       <c r="F270" s="325"/>
-      <c r="G270" s="337"/>
+      <c r="G270" s="338"/>
     </row>
     <row r="271" spans="1:7" ht="15.75">
-      <c r="A271" s="329"/>
+      <c r="A271" s="330"/>
       <c r="B271" s="192"/>
       <c r="C271" s="58"/>
       <c r="D271" s="323"/>
       <c r="E271" s="324"/>
       <c r="F271" s="325"/>
-      <c r="G271" s="337"/>
+      <c r="G271" s="338"/>
     </row>
     <row r="272" spans="1:7" ht="15.75">
-      <c r="A272" s="329"/>
+      <c r="A272" s="330"/>
       <c r="B272" s="192"/>
       <c r="C272" s="58"/>
       <c r="D272" s="323"/>
       <c r="E272" s="324"/>
       <c r="F272" s="325"/>
-      <c r="G272" s="337"/>
+      <c r="G272" s="338"/>
     </row>
     <row r="273" spans="1:7" ht="15.75">
-      <c r="A273" s="329"/>
+      <c r="A273" s="330"/>
       <c r="B273" s="192"/>
       <c r="C273" s="58"/>
       <c r="D273" s="323"/>
       <c r="E273" s="324"/>
       <c r="F273" s="325"/>
-      <c r="G273" s="337"/>
+      <c r="G273" s="338"/>
     </row>
     <row r="274" spans="1:7" ht="15.75">
-      <c r="A274" s="329"/>
+      <c r="A274" s="330"/>
       <c r="B274" s="192"/>
       <c r="C274" s="58"/>
       <c r="D274" s="323"/>
       <c r="E274" s="324"/>
       <c r="F274" s="325"/>
-      <c r="G274" s="337"/>
+      <c r="G274" s="338"/>
     </row>
     <row r="275" spans="1:7" ht="15.75">
-      <c r="A275" s="329"/>
+      <c r="A275" s="330"/>
       <c r="B275" s="192"/>
       <c r="C275" s="58"/>
       <c r="D275" s="323"/>
       <c r="E275" s="324"/>
       <c r="F275" s="325"/>
-      <c r="G275" s="337"/>
+      <c r="G275" s="338"/>
     </row>
     <row r="276" spans="1:7" ht="15.75">
-      <c r="A276" s="329"/>
+      <c r="A276" s="330"/>
       <c r="B276" s="192"/>
       <c r="C276" s="58"/>
       <c r="D276" s="323"/>
       <c r="E276" s="324"/>
       <c r="F276" s="325"/>
-      <c r="G276" s="337"/>
+      <c r="G276" s="338"/>
     </row>
     <row r="277" spans="1:7" ht="15.75">
-      <c r="A277" s="329"/>
+      <c r="A277" s="330"/>
       <c r="B277" s="192"/>
       <c r="C277" s="58"/>
       <c r="D277" s="323"/>
       <c r="E277" s="324"/>
       <c r="F277" s="325"/>
-      <c r="G277" s="337"/>
+      <c r="G277" s="338"/>
     </row>
     <row r="278" spans="1:7" ht="15.75">
-      <c r="A278" s="329"/>
+      <c r="A278" s="330"/>
       <c r="B278" s="192"/>
       <c r="C278" s="58"/>
       <c r="D278" s="323"/>
       <c r="E278" s="324"/>
       <c r="F278" s="325"/>
-      <c r="G278" s="337"/>
+      <c r="G278" s="338"/>
     </row>
     <row r="279" spans="1:7" ht="15.75">
-      <c r="A279" s="329"/>
+      <c r="A279" s="330"/>
       <c r="B279" s="192"/>
       <c r="C279" s="58"/>
       <c r="D279" s="323"/>
       <c r="E279" s="324"/>
       <c r="F279" s="325"/>
-      <c r="G279" s="337"/>
+      <c r="G279" s="338"/>
     </row>
     <row r="280" spans="1:7" ht="15.75">
-      <c r="A280" s="329"/>
+      <c r="A280" s="330"/>
       <c r="B280" s="192"/>
       <c r="C280" s="58"/>
       <c r="D280" s="323"/>
       <c r="E280" s="324"/>
       <c r="F280" s="325"/>
-      <c r="G280" s="337"/>
+      <c r="G280" s="338"/>
     </row>
     <row r="281" spans="1:7" ht="15.75">
-      <c r="A281" s="329"/>
+      <c r="A281" s="330"/>
       <c r="B281" s="192"/>
       <c r="C281" s="58"/>
       <c r="D281" s="323"/>
       <c r="E281" s="324"/>
       <c r="F281" s="325"/>
-      <c r="G281" s="337"/>
+      <c r="G281" s="338"/>
     </row>
     <row r="282" spans="1:7" ht="15.75">
-      <c r="A282" s="329"/>
+      <c r="A282" s="330"/>
       <c r="B282" s="192"/>
       <c r="C282" s="58"/>
       <c r="D282" s="323"/>
       <c r="E282" s="324"/>
       <c r="F282" s="325"/>
-      <c r="G282" s="337"/>
+      <c r="G282" s="338"/>
     </row>
     <row r="283" spans="1:7" ht="15.75">
-      <c r="A283" s="329"/>
+      <c r="A283" s="330"/>
       <c r="B283" s="192"/>
       <c r="C283" s="58"/>
       <c r="D283" s="323"/>
       <c r="E283" s="324"/>
       <c r="F283" s="325"/>
-      <c r="G283" s="337"/>
+      <c r="G283" s="338"/>
     </row>
     <row r="284" spans="1:7" ht="15.75">
-      <c r="A284" s="329"/>
+      <c r="A284" s="330"/>
       <c r="B284" s="192"/>
       <c r="C284" s="58"/>
       <c r="D284" s="323"/>
       <c r="E284" s="324"/>
       <c r="F284" s="325"/>
-      <c r="G284" s="337"/>
+      <c r="G284" s="338"/>
     </row>
     <row r="285" spans="1:7" ht="15.75">
-      <c r="A285" s="329"/>
+      <c r="A285" s="330"/>
       <c r="B285" s="192"/>
       <c r="C285" s="58"/>
       <c r="D285" s="323"/>
       <c r="E285" s="324"/>
       <c r="F285" s="325"/>
-      <c r="G285" s="337"/>
+      <c r="G285" s="338"/>
     </row>
     <row r="286" spans="1:7" ht="15.75">
-      <c r="A286" s="329"/>
+      <c r="A286" s="330"/>
       <c r="B286" s="192"/>
       <c r="C286" s="58"/>
       <c r="D286" s="323"/>
       <c r="E286" s="324"/>
       <c r="F286" s="325"/>
-      <c r="G286" s="337"/>
+      <c r="G286" s="338"/>
     </row>
     <row r="287" spans="1:7" ht="15.75">
-      <c r="A287" s="329"/>
+      <c r="A287" s="330"/>
       <c r="B287" s="192"/>
       <c r="C287" s="58"/>
       <c r="D287" s="323"/>
       <c r="E287" s="324"/>
       <c r="F287" s="325"/>
-      <c r="G287" s="337"/>
+      <c r="G287" s="338"/>
     </row>
     <row r="288" spans="1:7" ht="15.75">
-      <c r="A288" s="329"/>
+      <c r="A288" s="330"/>
       <c r="B288" s="192"/>
       <c r="C288" s="58"/>
       <c r="D288" s="323"/>
       <c r="E288" s="324"/>
       <c r="F288" s="325"/>
-      <c r="G288" s="337"/>
+      <c r="G288" s="338"/>
     </row>
     <row r="289" spans="1:8" ht="15.75">
-      <c r="A289" s="329"/>
+      <c r="A289" s="330"/>
       <c r="B289" s="192"/>
       <c r="C289" s="58"/>
       <c r="D289" s="323"/>
       <c r="E289" s="324"/>
       <c r="F289" s="325"/>
-      <c r="G289" s="337"/>
+      <c r="G289" s="338"/>
     </row>
     <row r="290" spans="1:8" ht="15.75">
-      <c r="A290" s="329"/>
+      <c r="A290" s="330"/>
       <c r="B290" s="192"/>
       <c r="C290" s="58"/>
       <c r="D290" s="323"/>
       <c r="E290" s="324"/>
       <c r="F290" s="325"/>
-      <c r="G290" s="337"/>
+      <c r="G290" s="338"/>
     </row>
     <row r="291" spans="1:8" ht="15.75">
-      <c r="A291" s="329"/>
+      <c r="A291" s="330"/>
       <c r="B291" s="192"/>
       <c r="C291" s="58"/>
       <c r="D291" s="323"/>
       <c r="E291" s="324"/>
       <c r="F291" s="325"/>
-      <c r="G291" s="337"/>
+      <c r="G291" s="338"/>
     </row>
     <row r="292" spans="1:8" ht="15.75">
-      <c r="A292" s="329"/>
+      <c r="A292" s="330"/>
       <c r="B292" s="192"/>
       <c r="C292" s="58"/>
       <c r="D292" s="323"/>
       <c r="E292" s="324"/>
       <c r="F292" s="325"/>
-      <c r="G292" s="337"/>
+      <c r="G292" s="338"/>
     </row>
     <row r="293" spans="1:8" ht="15.75">
-      <c r="A293" s="329"/>
+      <c r="A293" s="330"/>
       <c r="B293" s="192"/>
       <c r="C293" s="58"/>
       <c r="D293" s="323"/>
       <c r="E293" s="324"/>
       <c r="F293" s="325"/>
-      <c r="G293" s="337"/>
+      <c r="G293" s="338"/>
     </row>
     <row r="294" spans="1:8" ht="15.75">
-      <c r="A294" s="329"/>
+      <c r="A294" s="330"/>
       <c r="B294" s="192"/>
       <c r="C294" s="58"/>
       <c r="D294" s="323"/>
       <c r="E294" s="324"/>
       <c r="F294" s="325"/>
-      <c r="G294" s="337"/>
+      <c r="G294" s="338"/>
     </row>
     <row r="295" spans="1:8" ht="15.75">
-      <c r="A295" s="329"/>
+      <c r="A295" s="330"/>
       <c r="B295" s="192"/>
       <c r="C295" s="58"/>
       <c r="D295" s="323"/>
       <c r="E295" s="324"/>
       <c r="F295" s="325"/>
-      <c r="G295" s="337"/>
+      <c r="G295" s="338"/>
     </row>
     <row r="296" spans="1:8" ht="15.75">
-      <c r="A296" s="329"/>
+      <c r="A296" s="330"/>
       <c r="B296" s="192"/>
       <c r="C296" s="58"/>
       <c r="D296" s="323"/>
       <c r="E296" s="324"/>
       <c r="F296" s="325"/>
-      <c r="G296" s="337"/>
+      <c r="G296" s="338"/>
     </row>
     <row r="297" spans="1:8" ht="15.75">
-      <c r="A297" s="329"/>
+      <c r="A297" s="330"/>
       <c r="B297" s="192"/>
       <c r="C297" s="58"/>
       <c r="D297" s="323"/>
       <c r="E297" s="324"/>
       <c r="F297" s="325"/>
-      <c r="G297" s="337"/>
+      <c r="G297" s="338"/>
     </row>
     <row r="298" spans="1:8" ht="15.75">
-      <c r="A298" s="329"/>
+      <c r="A298" s="330"/>
       <c r="B298" s="192"/>
       <c r="C298" s="58"/>
       <c r="D298" s="323"/>
       <c r="E298" s="324"/>
       <c r="F298" s="325"/>
-      <c r="G298" s="337"/>
+      <c r="G298" s="338"/>
     </row>
     <row r="299" spans="1:8" ht="15.75">
-      <c r="A299" s="329"/>
+      <c r="A299" s="330"/>
       <c r="B299" s="192"/>
       <c r="C299" s="58"/>
       <c r="D299" s="323"/>
       <c r="E299" s="324"/>
       <c r="F299" s="325"/>
-      <c r="G299" s="337"/>
+      <c r="G299" s="338"/>
     </row>
     <row r="300" spans="1:8" ht="15.75">
-      <c r="A300" s="329"/>
+      <c r="A300" s="330"/>
       <c r="B300" s="192"/>
       <c r="C300" s="58"/>
       <c r="D300" s="323"/>
       <c r="E300" s="324"/>
       <c r="F300" s="325"/>
-      <c r="G300" s="337"/>
+      <c r="G300" s="338"/>
     </row>
     <row r="301" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A301" s="330"/>
-      <c r="B301" s="340" t="s">
+      <c r="A301" s="331"/>
+      <c r="B301" s="326" t="s">
         <v>2183</v>
       </c>
-      <c r="C301" s="340"/>
-      <c r="D301" s="340"/>
-      <c r="E301" s="340"/>
-      <c r="F301" s="340"/>
-      <c r="G301" s="338"/>
+      <c r="C301" s="326"/>
+      <c r="D301" s="326"/>
+      <c r="E301" s="326"/>
+      <c r="F301" s="326"/>
+      <c r="G301" s="339"/>
     </row>
     <row r="302" spans="1:8" ht="13.5" thickTop="1">
       <c r="D302" s="189" t="s">
@@ -64376,39 +64391,251 @@
   </sheetData>
   <sheetProtection password="C453" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0"/>
   <mergeCells count="302">
-    <mergeCell ref="D291:F291"/>
-    <mergeCell ref="D292:F292"/>
-    <mergeCell ref="D285:F285"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="D288:F288"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="D290:F290"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="D280:F280"/>
-    <mergeCell ref="D281:F281"/>
-    <mergeCell ref="D282:F282"/>
-    <mergeCell ref="D283:F283"/>
-    <mergeCell ref="D284:F284"/>
-    <mergeCell ref="D300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="D293:F293"/>
-    <mergeCell ref="D294:F294"/>
-    <mergeCell ref="D295:F295"/>
-    <mergeCell ref="D296:F296"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="D298:F298"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="D269:F269"/>
-    <mergeCell ref="D270:F270"/>
-    <mergeCell ref="D271:F271"/>
-    <mergeCell ref="D272:F272"/>
-    <mergeCell ref="D277:F277"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="D275:F275"/>
-    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A301"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:G301"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="D204:F204"/>
+    <mergeCell ref="D205:F205"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="D249:F249"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="D246:F246"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="D226:F226"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="D267:F267"/>
     <mergeCell ref="D268:F268"/>
@@ -64433,251 +64660,39 @@
     <mergeCell ref="D248:F248"/>
     <mergeCell ref="D264:F264"/>
     <mergeCell ref="D251:F251"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="D249:F249"/>
-    <mergeCell ref="D250:F250"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="D246:F246"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D238:F238"/>
-    <mergeCell ref="D225:F225"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="D216:F216"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D201:F201"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="D204:F204"/>
-    <mergeCell ref="D205:F205"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A301"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G2:G301"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D269:F269"/>
+    <mergeCell ref="D270:F270"/>
+    <mergeCell ref="D271:F271"/>
+    <mergeCell ref="D272:F272"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="D300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="D293:F293"/>
+    <mergeCell ref="D294:F294"/>
+    <mergeCell ref="D295:F295"/>
+    <mergeCell ref="D296:F296"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="D298:F298"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="D291:F291"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="D285:F285"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="D280:F280"/>
+    <mergeCell ref="D281:F281"/>
+    <mergeCell ref="D282:F282"/>
+    <mergeCell ref="D283:F283"/>
+    <mergeCell ref="D284:F284"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
